--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3874F-87D3-4AE8-B8A6-9F9494512776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2018FA7-017E-4EF3-B4AE-72EE2B964BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F681"/>
+  <dimension ref="A1:F874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B658" sqref="B658"/>
+    <sheetView tabSelected="1" topLeftCell="A669" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A684" sqref="A684:A874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3834,6 +3834,966 @@
         <v>1121902371</v>
       </c>
     </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684" s="5">
+        <v>30080356</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685" s="3">
+        <v>21236224</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686" s="5">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687" s="5">
+        <v>39727147</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690" s="5">
+        <v>40367231</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691" s="5">
+        <v>37671025</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692" s="3">
+        <v>30080371</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693" s="5">
+        <v>40188151</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694" s="5">
+        <v>40334977</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695" s="5">
+        <v>1120498000</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696" s="5">
+        <v>40403787</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697" s="5">
+        <v>1121891980</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698" s="5">
+        <v>1121864632</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699" s="5">
+        <v>40332711</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700" s="3">
+        <v>52655858</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701" s="3">
+        <v>1069900532</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702" s="5">
+        <v>1121847839</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703" s="3">
+        <v>40413127</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704" s="5">
+        <v>40413367</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" s="5">
+        <v>39648983</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" s="5">
+        <v>1007702703</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" s="3">
+        <v>1121857800</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" s="5">
+        <v>40218053</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" s="5">
+        <v>1006442026</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" s="3">
+        <v>1006774169</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" s="3">
+        <v>1121906325</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" s="5">
+        <v>1121892958</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" s="5">
+        <v>1072395724</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" s="3">
+        <v>1121842098</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" s="3">
+        <v>1121881992</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" s="3">
+        <v>1121855560</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" s="3">
+        <v>1001092252</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" s="5">
+        <v>1143252992</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" s="5">
+        <v>35261784</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" s="3">
+        <v>1121964736</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" s="3">
+        <v>1006775869</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" s="5">
+        <v>40394987</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" s="3">
+        <v>1075685562</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" s="5">
+        <v>40442006</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" s="5">
+        <v>1001118801</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" s="3">
+        <v>26163691</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" s="5">
+        <v>40390505</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" s="5">
+        <v>1121955504</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" s="5">
+        <v>1000832681</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" s="5">
+        <v>1121849388</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" s="3">
+        <v>1121944032</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" s="3">
+        <v>1122652964</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" s="5">
+        <v>1121818890</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" s="5">
+        <v>1121954646</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" s="5">
+        <v>21242719</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" s="5">
+        <v>1121844971</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" s="3">
+        <v>1006775707</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" s="5">
+        <v>40215468</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" s="5">
+        <v>1075277227</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>1118291987</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" s="3">
+        <v>40443728</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" s="5">
+        <v>1121873859</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" s="5">
+        <v>1121821756</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" s="3">
+        <v>42031731</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" s="5">
+        <v>1122653540</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" s="3">
+        <v>30083822</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" s="5">
+        <v>86086391</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" s="3">
+        <v>40394841</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" s="5">
+        <v>1006828058</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" s="3">
+        <v>1121960138</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" s="3">
+        <v>40334349</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" s="3">
+        <v>20851383</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" s="3">
+        <v>1121836742</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" s="5">
+        <v>1121871447</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" s="3">
+        <v>1007228432</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" s="5">
+        <v>40218016</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" s="3">
+        <v>1121824999</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" s="5">
+        <v>1121917747</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" s="5">
+        <v>1121827017</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" s="3">
+        <v>1057574560</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" s="5">
+        <v>1121862649</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" s="3">
+        <v>40217183</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" s="3">
+        <v>40325663</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" s="5">
+        <v>1006798198</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" s="5">
+        <v>1121852594</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" s="5">
+        <v>1121946818</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" s="5">
+        <v>1125552959</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" s="5">
+        <v>40331222</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" s="5">
+        <v>1056782595</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" s="5">
+        <v>1006772734</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" s="5">
+        <v>1121893657</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772" s="3">
+        <v>1193092381</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773" s="5">
+        <v>1121849200</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774" s="3">
+        <v>1012331970</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775" s="3">
+        <v>1012342436</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776" s="3">
+        <v>1121853595</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777" s="3">
+        <v>35587282</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A778" s="5">
+        <v>1014184746</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A779" s="5">
+        <v>1023035549</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A780" s="3">
+        <v>40326656</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A781" s="5">
+        <v>1007413869</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A782" s="5">
+        <v>1006828141</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A783" s="3">
+        <v>1121841888</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A784" s="3">
+        <v>52619648</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A785" s="5">
+        <v>1122138078</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A786" s="3">
+        <v>40186281</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A787" s="3">
+        <v>40371926</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A788" s="5">
+        <v>1121896390</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A789" s="3">
+        <v>35261879</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A790" s="5">
+        <v>40401474</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A791" s="5">
+        <v>1121824236</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A792" s="5">
+        <v>1123561577</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A793" s="5">
+        <v>40325807</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A794" s="5">
+        <v>40441092</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A795" s="3">
+        <v>40188434</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A796" s="3">
+        <v>40402375</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A797" s="3">
+        <v>40444722</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A798" s="3">
+        <v>1193557701</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A799" s="5">
+        <v>38290869</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A800" s="3">
+        <v>52205911</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A801" s="3">
+        <v>21231994</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A802" s="3">
+        <v>1121920906</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A803" s="3">
+        <v>42548918</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A804" s="3">
+        <v>40441978</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A805" s="5">
+        <v>1123801589</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A806" s="3">
+        <v>1121817317</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A807" s="5">
+        <v>1127391633</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A808" s="3">
+        <v>1121915258</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A809" s="3">
+        <v>1121899304</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A810" s="5">
+        <v>40386471</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A811" s="3">
+        <v>1121925708</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A812" s="3">
+        <v>1121846671</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A813" s="3">
+        <v>40400188</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A814" s="3">
+        <v>1121968595</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A815" s="3">
+        <v>1006874896</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A816" s="3">
+        <v>51883053</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A817" s="5">
+        <v>1030623737</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A818" s="5">
+        <v>40388244</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A819" s="3">
+        <v>37397372</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A820" s="5">
+        <v>52977026</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A821" s="3">
+        <v>40392197</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A822" s="3">
+        <v>1121823721</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A823" s="5">
+        <v>52862750</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A824" s="5">
+        <v>1007741689</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A825" s="5">
+        <v>40189602</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A826" s="5">
+        <v>1234790567</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A827" s="5">
+        <v>1006335084</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A828" s="3">
+        <v>1121849738</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A829" s="3">
+        <v>1099210766</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A830" s="3">
+        <v>1121918538</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A831" s="3">
+        <v>1116439136</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A832" s="5">
+        <v>1234789507</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A833">
+        <v>1033748818</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A834" s="3">
+        <v>1121908839</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A835" s="5">
+        <v>1121946821</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A836" s="5">
+        <v>1121915532</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A837" s="5">
+        <v>1120378354</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A838" s="3">
+        <v>1006835763</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A839" s="5">
+        <v>1007816099</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A840" s="5">
+        <v>1005566462</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A841" s="5">
+        <v>1005294945</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A842" s="5">
+        <v>1122655308</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A843" s="3">
+        <v>1123561702</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A844" s="5">
+        <v>1006775023</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A845" s="5">
+        <v>1006797846</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A846" s="5">
+        <v>1003583504</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A847" s="5">
+        <v>1121146010</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A848" s="5">
+        <v>1122653301</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A849" s="3">
+        <v>1121879243</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A850" s="3">
+        <v>1120365722</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A851" s="3">
+        <v>1121948797</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A852" s="3">
+        <v>1120559199</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A853" s="3">
+        <v>1006690427</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A854" s="3">
+        <v>1121720012</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A855" s="3">
+        <v>1121961367</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A856" s="5">
+        <v>40186992</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A857" s="5">
+        <v>1010123626</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A858" s="5">
+        <v>1234789441</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A859" s="5">
+        <v>1123431666</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A860" s="5">
+        <v>1006859731</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A861" s="5">
+        <v>1120385112</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A862" s="5">
+        <v>1121921356</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A863" s="5">
+        <v>1006774144</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A864" s="5">
+        <v>1123140904</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A865" s="5">
+        <v>1010031875</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A866" s="5">
+        <v>46376887</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A867" s="5">
+        <v>1006820624</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A868" s="5">
+        <v>1121833506</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A869" s="5">
+        <v>1121888058</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A870" s="5">
+        <v>1122919487</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A871" s="5">
+        <v>1193221023</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A872" s="5">
+        <v>1121872788</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A873" s="5">
+        <v>1069735886</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A874" s="5">
+        <v>1007437551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2018FA7-017E-4EF3-B4AE-72EE2B964BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D888016-AE5D-4471-B0B2-8238D9EAFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>VILLAVICENCIO 1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>23/08/20225</t>
+  </si>
+  <si>
+    <t>TODAS LAS ROJAS PENDIENTES POR CERRAR SESION CON OPCION 15</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +100,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -111,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -119,6 +128,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F874"/>
+  <dimension ref="A1:F1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A684" sqref="A684:A874"/>
+    <sheetView tabSelected="1" topLeftCell="A1075" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1086" sqref="B1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.90625" customWidth="1"/>
   </cols>
@@ -4794,7 +4807,1311 @@
         <v>1007437551</v>
       </c>
     </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A876" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A877" s="3">
+        <v>30080356</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A878" s="5">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A879" s="5">
+        <v>39727147</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A880" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A881" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A882" s="3">
+        <v>40367231</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A883" s="5">
+        <v>37671025</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A884" s="3">
+        <v>40188151</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A885" s="5">
+        <v>40334977</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A886" s="3">
+        <v>1120498000</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A887" s="3">
+        <v>40403787</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A888" s="3">
+        <v>1121891980</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A889" s="3">
+        <v>1121864632</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A890" s="3">
+        <v>40332711</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A891" s="3">
+        <v>1121847839</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A892" s="5">
+        <v>40413367</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A893" s="3">
+        <v>39648983</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A894" s="3">
+        <v>1007702703</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A895" s="5">
+        <v>40218053</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A896" s="3">
+        <v>1006442026</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A897" s="5">
+        <v>1121892958</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A898" s="3">
+        <v>1072395724</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A899" s="3">
+        <v>1143252992</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A900" s="3">
+        <v>35261784</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A901" s="3">
+        <v>40394987</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A902" s="3">
+        <v>40442006</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A903" s="3">
+        <v>1001118801</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A904" s="3">
+        <v>40390505</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A905" s="3">
+        <v>1121955504</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A906" s="3">
+        <v>1000832681</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A907" s="3">
+        <v>1121849388</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A908" s="3">
+        <v>1121818890</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A909" s="3">
+        <v>1121954646</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A910" s="5">
+        <v>21242719</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A911" s="3">
+        <v>1121844971</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A912" s="3">
+        <v>40215468</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A913" s="3">
+        <v>1075277227</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A914" s="3">
+        <v>1118291987</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A915" s="3">
+        <v>1121873859</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A916" s="3">
+        <v>1121821756</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A917" s="3">
+        <v>1122653540</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A918" s="3">
+        <v>86086391</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A919" s="3">
+        <v>1006828058</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A920" s="3">
+        <v>1121871447</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A921" s="3">
+        <v>40218016</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A922" s="3">
+        <v>1121917747</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A923" s="3">
+        <v>1121827017</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A924" s="3">
+        <v>1121862649</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A925" s="3">
+        <v>1006798198</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A926" s="5">
+        <v>1121852594</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A927" s="3">
+        <v>1121946818</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A928" s="5">
+        <v>1125552959</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A929" s="3">
+        <v>40331222</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A930" s="5">
+        <v>1056782595</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A931" s="3">
+        <v>1006772734</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A932" s="3">
+        <v>1121893657</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A933" s="3">
+        <v>1121849200</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A934" s="3">
+        <v>1014184746</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A935" s="5">
+        <v>1023035549</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A936" s="5">
+        <v>1007413869</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A937" s="3">
+        <v>1006828141</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A938" s="5">
+        <v>1122138078</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A939" s="3">
+        <v>1121896390</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A940" s="5">
+        <v>40401474</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A941" s="3">
+        <v>1121824236</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A942" s="3">
+        <v>1123561577</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A943" s="3">
+        <v>40325807</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A944" s="3">
+        <v>40441092</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A945" s="5">
+        <v>38290869</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A946" s="3">
+        <v>1123801589</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A947" s="3">
+        <v>1127391633</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A948" s="5">
+        <v>40386471</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A949" s="3">
+        <v>1030623737</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A950" s="5">
+        <v>40388244</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A951" s="3">
+        <v>52977026</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A952" s="3">
+        <v>52862750</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A953" s="3">
+        <v>1007741689</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A954" s="3">
+        <v>40189602</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A955" s="3">
+        <v>1234790567</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A956" s="3">
+        <v>1006335084</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A957" s="3">
+        <v>1234789507</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A958" s="3">
+        <v>1033748818</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A959" s="5">
+        <v>1121946821</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A960" s="3">
+        <v>1121915532</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A961" s="3">
+        <v>1120378354</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A962" s="5">
+        <v>1007816099</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A963" s="3">
+        <v>1005566462</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A964" s="3">
+        <v>1005294945</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A965" s="3">
+        <v>1122655308</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A966" s="3">
+        <v>1006775023</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A967" s="5">
+        <v>1006797846</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A968" s="3">
+        <v>1003583504</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A969" s="3">
+        <v>1121146010</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A970" s="3">
+        <v>1122653301</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A971" s="3">
+        <v>40186992</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A972" s="3">
+        <v>1010123626</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A973" s="3">
+        <v>1234789441</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A974" s="3">
+        <v>1123431666</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A975" s="3">
+        <v>1006859731</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A976" s="3">
+        <v>1120385112</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A977" s="3">
+        <v>1121921356</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A978" s="5">
+        <v>1006774144</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A979" s="3">
+        <v>1123140904</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A980" s="3">
+        <v>1010031875</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A981" s="3">
+        <v>46376887</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A982" s="3">
+        <v>1006820624</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A983" s="3">
+        <v>1121833506</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A984" s="3">
+        <v>1121888058</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A985" s="3">
+        <v>1122919487</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A986" s="3">
+        <v>1193221023</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A987" s="5">
+        <v>1121872788</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A988" s="3">
+        <v>1069735886</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A989" s="3">
+        <v>1007437551</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A990" s="3">
+        <v>1121931106</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A991" s="3">
+        <v>1014243158</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A992" s="3">
+        <v>1121944349</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A993" s="3">
+        <v>1000580172</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A994" s="3">
+        <v>1085280827</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A995" s="3">
+        <v>1014292653</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A996" s="3">
+        <v>52710556</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A997" s="3">
+        <v>1121822749</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A998" s="3">
+        <v>1001174715</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A999" s="3">
+        <v>1123430278</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1000" s="3">
+        <v>1022408192</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="3">
+        <v>1121836926</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1002" s="3">
+        <v>40333112</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1003" s="3">
+        <v>1127382143</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1004" s="3">
+        <v>1002577155</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="5">
+        <v>24100971</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1006" s="3">
+        <v>1002085841</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1007" s="3">
+        <v>1121935079</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1008" s="3">
+        <v>1006827679</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1009" s="3">
+        <v>1006736555</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="3">
+        <v>1029982510</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="3">
+        <v>1001885026</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="3">
+        <v>1121960484</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="3">
+        <v>1007702953</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="3">
+        <v>1006722113</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="5">
+        <v>1029981260</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="3">
+        <v>1007730620</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="3">
+        <v>1007318395</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="3">
+        <v>1121923083</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="3">
+        <v>1014306063</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1020">
+        <v>1097990010</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="3">
+        <v>1121919401</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="3">
+        <v>1022341095</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="3">
+        <v>1233490733</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="3">
+        <v>1123803651</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="3">
+        <v>39570143</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="5">
+        <v>1121849836</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="3">
+        <v>1029982301</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="3">
+        <v>52483077</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="3">
+        <v>1121146397</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="3">
+        <v>1006658626</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="3">
+        <v>40439256</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="5">
+        <v>52501176</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="3">
+        <v>1121834547</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="3">
+        <v>1122507401</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="3">
+        <v>1121940276</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="3">
+        <v>1122507035</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="3">
+        <v>1013674750</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="3">
+        <v>1122511768</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="3">
+        <v>1122918696</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="3">
+        <v>1120926035</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="5">
+        <v>1121830619</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="3">
+        <v>77777780</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="3">
+        <v>1022960497</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="3">
+        <v>1113692397</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="3">
+        <v>1036840503</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="3">
+        <v>1006695715</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="3">
+        <v>63471947</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="3">
+        <v>1121965996</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="3">
+        <v>1006692119</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="3">
+        <v>1121931253</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="3">
+        <v>40333161</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="3">
+        <v>1120870248</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="3">
+        <v>1120871550</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="3">
+        <v>1123860010</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="5">
+        <v>1077976735</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="3">
+        <v>1234789628</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="3">
+        <v>1065644681</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="3">
+        <v>1006819843</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="5">
+        <v>1005159244</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="5">
+        <v>1006794572</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="5">
+        <v>1006824446</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="3">
+        <v>1193092480</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="5">
+        <v>1121915979</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="3">
+        <v>1122647759</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="3">
+        <v>1121874758</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="3">
+        <v>1005848328</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="3">
+        <v>1121416122</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="3">
+        <v>1007584794</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1069" s="3">
+        <v>1121927207</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1070" s="3">
+        <v>1122918521</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1071" s="3">
+        <v>1003565669</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1072" s="3">
+        <v>1106775925</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1073" s="3">
+        <v>1121966736</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1074" s="3">
+        <v>1121931564</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1075" s="3">
+        <v>1121817727</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1076" s="5">
+        <v>1022999589</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1077" s="5">
+        <v>1006656639</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1078" s="5">
+        <v>1096196072</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1079" s="3">
+        <v>1122511568</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1080" s="3">
+        <v>1118532809</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1081" s="3">
+        <v>1006796310</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1082" s="3">
+        <v>53062799</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1083" s="3">
+        <v>1106888062</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1084" s="3">
+        <v>1121844532</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1085" s="5">
+        <v>1034660761</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1086" s="3">
+        <v>1005848329</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1087" s="3">
+        <v>1121817958</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1089" s="1">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1090" s="5">
+        <v>21229026</v>
+      </c>
+      <c r="B1090" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1091" s="5">
+        <v>39727147</v>
+      </c>
+      <c r="B1091" s="7"/>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1092" s="5">
+        <v>17329021</v>
+      </c>
+      <c r="B1092" s="7"/>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1093" s="5">
+        <v>39728361</v>
+      </c>
+      <c r="B1093" s="7"/>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1094" s="5">
+        <v>37671025</v>
+      </c>
+      <c r="B1094" s="7"/>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1095" s="5">
+        <v>40334977</v>
+      </c>
+      <c r="B1095" s="7"/>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1096" s="5">
+        <v>40413367</v>
+      </c>
+      <c r="B1096" s="7"/>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1097" s="3">
+        <v>40218053</v>
+      </c>
+      <c r="B1097" s="7"/>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1098" s="5">
+        <v>1121892958</v>
+      </c>
+      <c r="B1098" s="7"/>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1099" s="5">
+        <v>21242719</v>
+      </c>
+      <c r="B1099" s="7"/>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1100" s="3">
+        <v>1121852594</v>
+      </c>
+      <c r="B1100" s="7"/>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1101" s="5">
+        <v>1125552959</v>
+      </c>
+      <c r="B1101" s="7"/>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1102" s="5">
+        <v>1056782595</v>
+      </c>
+      <c r="B1102" s="7"/>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1103" s="5">
+        <v>1023035549</v>
+      </c>
+      <c r="B1103" s="7"/>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1104" s="5">
+        <v>1007413869</v>
+      </c>
+      <c r="B1104" s="7"/>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1105" s="5">
+        <v>1122138078</v>
+      </c>
+      <c r="B1105" s="7"/>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1106" s="5">
+        <v>40401474</v>
+      </c>
+      <c r="B1106" s="7"/>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1107" s="5">
+        <v>38290869</v>
+      </c>
+      <c r="B1107" s="7"/>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1108" s="5">
+        <v>40386471</v>
+      </c>
+      <c r="B1108" s="7"/>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1109" s="3">
+        <v>40388244</v>
+      </c>
+      <c r="B1109" s="7"/>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1110" s="5">
+        <v>1121946821</v>
+      </c>
+      <c r="B1110" s="7"/>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1111" s="5">
+        <v>1007816099</v>
+      </c>
+      <c r="B1111" s="7"/>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1112" s="5">
+        <v>1006797846</v>
+      </c>
+      <c r="B1112" s="7"/>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1113" s="5">
+        <v>1006774144</v>
+      </c>
+      <c r="B1113" s="7"/>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1114" s="5">
+        <v>1121872788</v>
+      </c>
+      <c r="B1114" s="7"/>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1115" s="5">
+        <v>24100971</v>
+      </c>
+      <c r="B1115" s="7"/>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1116" s="5">
+        <v>1029981260</v>
+      </c>
+      <c r="B1116" s="7"/>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1117" s="3">
+        <v>1097990010</v>
+      </c>
+      <c r="B1117" s="7"/>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1118" s="3">
+        <v>52501176</v>
+      </c>
+      <c r="B1118" s="7"/>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1119" s="5">
+        <v>1121830619</v>
+      </c>
+      <c r="B1119" s="7"/>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1120" s="5">
+        <v>1077976735</v>
+      </c>
+      <c r="B1120" s="7"/>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1121" s="5">
+        <v>1005159244</v>
+      </c>
+      <c r="B1121" s="7"/>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1122" s="5">
+        <v>1006794572</v>
+      </c>
+      <c r="B1122" s="7"/>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1123" s="5">
+        <v>1006824446</v>
+      </c>
+      <c r="B1123" s="7"/>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1124" s="3">
+        <v>1121915979</v>
+      </c>
+      <c r="B1124" s="7"/>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1125" s="5">
+        <v>1022999589</v>
+      </c>
+      <c r="B1125" s="7"/>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1126" s="5">
+        <v>1006656639</v>
+      </c>
+      <c r="B1126" s="7"/>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1127" s="5">
+        <v>1096196072</v>
+      </c>
+      <c r="B1127" s="7"/>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1128" s="5">
+        <v>1034660761</v>
+      </c>
+      <c r="B1128" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1090:B1128"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D888016-AE5D-4471-B0B2-8238D9EAFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163864B-667F-4DF7-8EB3-08BDD9C8B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>VILLAVICENCIO 1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>TODAS LAS ROJAS PENDIENTES POR CERRAR SESION CON OPCION 15</t>
+  </si>
+  <si>
+    <t>2:25pm</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1128"/>
+  <dimension ref="A1:F1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1075" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1086" sqref="B1086"/>
+    <sheetView tabSelected="1" topLeftCell="A1123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1134" sqref="B1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6108,6 +6111,214 @@
       </c>
       <c r="B1128" s="7"/>
     </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1130" s="1">
+        <v>45932</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1131" s="5">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1132" s="3">
+        <v>31006459</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1133" s="3">
+        <v>21177007</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1134" s="5">
+        <v>17360686</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1135" s="5">
+        <v>51642333</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1136" s="3">
+        <v>21199606</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1137" s="5">
+        <v>3292415</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1138" s="5">
+        <v>11373533</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1139" s="5">
+        <v>30030456</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1140" s="5">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1141" s="5">
+        <v>3282146</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1142" s="5">
+        <v>3045925</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1143" s="5">
+        <v>21173140</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1144" s="5">
+        <v>21234532</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1145" s="5">
+        <v>6671921</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1146" s="3">
+        <v>86010008</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1147" s="5">
+        <v>4561950</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1148" s="3">
+        <v>1119886285</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1149" s="5">
+        <v>40422362</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1150" s="5">
+        <v>40447756</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1151" s="3">
+        <v>1122649188</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1152" s="3">
+        <v>21182125</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1153" s="3">
+        <v>30001167</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1154" s="3">
+        <v>1122129288</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1155" s="3">
+        <v>1122646151</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1156" s="3">
+        <v>1122652108</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1157" s="3">
+        <v>40315281</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1158" s="5">
+        <v>19337954</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1159" s="5">
+        <v>30055021</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1160" s="3">
+        <v>40362749</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1161" s="5">
+        <v>40446257</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1162" s="5">
+        <v>40434896</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1163" s="3">
+        <v>1123058626</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1164" s="3">
+        <v>1122134224</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1165" s="5">
+        <v>1123860656</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1166" s="5">
+        <v>30055352</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1167" s="5">
+        <v>40362705</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1168" s="3">
+        <v>40449564</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1169" s="3">
+        <v>23629227</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1170" s="3">
+        <v>1120499341</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1090:B1128"/>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163864B-667F-4DF7-8EB3-08BDD9C8B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54956A07-0C8F-45D6-A6BD-5737F73DB889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>VILLAVICENCIO 1</t>
   </si>
@@ -50,12 +50,15 @@
   <si>
     <t>2:25pm</t>
   </si>
+  <si>
+    <t>3/10/2025 1:38PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -123,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -131,6 +140,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1170"/>
+  <dimension ref="A1:F1484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1134" sqref="B1134"/>
+    <sheetView tabSelected="1" topLeftCell="A1427" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1444" sqref="K1444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5879,7 +5890,7 @@
       <c r="A1090" s="5">
         <v>21229026</v>
       </c>
-      <c r="B1090" s="7" t="s">
+      <c r="B1090" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5887,229 +5898,229 @@
       <c r="A1091" s="5">
         <v>39727147</v>
       </c>
-      <c r="B1091" s="7"/>
+      <c r="B1091" s="9"/>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1092" s="5">
         <v>17329021</v>
       </c>
-      <c r="B1092" s="7"/>
+      <c r="B1092" s="9"/>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1093" s="5">
         <v>39728361</v>
       </c>
-      <c r="B1093" s="7"/>
+      <c r="B1093" s="9"/>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1094" s="5">
         <v>37671025</v>
       </c>
-      <c r="B1094" s="7"/>
+      <c r="B1094" s="9"/>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1095" s="5">
         <v>40334977</v>
       </c>
-      <c r="B1095" s="7"/>
+      <c r="B1095" s="9"/>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1096" s="5">
         <v>40413367</v>
       </c>
-      <c r="B1096" s="7"/>
+      <c r="B1096" s="9"/>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1097" s="3">
         <v>40218053</v>
       </c>
-      <c r="B1097" s="7"/>
+      <c r="B1097" s="9"/>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1098" s="5">
         <v>1121892958</v>
       </c>
-      <c r="B1098" s="7"/>
+      <c r="B1098" s="9"/>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1099" s="5">
         <v>21242719</v>
       </c>
-      <c r="B1099" s="7"/>
+      <c r="B1099" s="9"/>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1100" s="3">
         <v>1121852594</v>
       </c>
-      <c r="B1100" s="7"/>
+      <c r="B1100" s="9"/>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1101" s="5">
         <v>1125552959</v>
       </c>
-      <c r="B1101" s="7"/>
+      <c r="B1101" s="9"/>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1102" s="5">
         <v>1056782595</v>
       </c>
-      <c r="B1102" s="7"/>
+      <c r="B1102" s="9"/>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1103" s="5">
         <v>1023035549</v>
       </c>
-      <c r="B1103" s="7"/>
+      <c r="B1103" s="9"/>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1104" s="5">
         <v>1007413869</v>
       </c>
-      <c r="B1104" s="7"/>
+      <c r="B1104" s="9"/>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1105" s="5">
         <v>1122138078</v>
       </c>
-      <c r="B1105" s="7"/>
+      <c r="B1105" s="9"/>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1106" s="5">
         <v>40401474</v>
       </c>
-      <c r="B1106" s="7"/>
+      <c r="B1106" s="9"/>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1107" s="5">
         <v>38290869</v>
       </c>
-      <c r="B1107" s="7"/>
+      <c r="B1107" s="9"/>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1108" s="5">
         <v>40386471</v>
       </c>
-      <c r="B1108" s="7"/>
+      <c r="B1108" s="9"/>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1109" s="3">
         <v>40388244</v>
       </c>
-      <c r="B1109" s="7"/>
+      <c r="B1109" s="9"/>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1110" s="5">
         <v>1121946821</v>
       </c>
-      <c r="B1110" s="7"/>
+      <c r="B1110" s="9"/>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1111" s="5">
         <v>1007816099</v>
       </c>
-      <c r="B1111" s="7"/>
+      <c r="B1111" s="9"/>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1112" s="5">
         <v>1006797846</v>
       </c>
-      <c r="B1112" s="7"/>
+      <c r="B1112" s="9"/>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1113" s="5">
         <v>1006774144</v>
       </c>
-      <c r="B1113" s="7"/>
+      <c r="B1113" s="9"/>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1114" s="5">
         <v>1121872788</v>
       </c>
-      <c r="B1114" s="7"/>
+      <c r="B1114" s="9"/>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1115" s="5">
         <v>24100971</v>
       </c>
-      <c r="B1115" s="7"/>
+      <c r="B1115" s="9"/>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1116" s="5">
         <v>1029981260</v>
       </c>
-      <c r="B1116" s="7"/>
+      <c r="B1116" s="9"/>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1117" s="3">
         <v>1097990010</v>
       </c>
-      <c r="B1117" s="7"/>
+      <c r="B1117" s="9"/>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1118" s="3">
         <v>52501176</v>
       </c>
-      <c r="B1118" s="7"/>
+      <c r="B1118" s="9"/>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1119" s="5">
         <v>1121830619</v>
       </c>
-      <c r="B1119" s="7"/>
+      <c r="B1119" s="9"/>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1120" s="5">
         <v>1077976735</v>
       </c>
-      <c r="B1120" s="7"/>
+      <c r="B1120" s="9"/>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1121" s="5">
         <v>1005159244</v>
       </c>
-      <c r="B1121" s="7"/>
+      <c r="B1121" s="9"/>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1122" s="5">
         <v>1006794572</v>
       </c>
-      <c r="B1122" s="7"/>
+      <c r="B1122" s="9"/>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1123" s="5">
         <v>1006824446</v>
       </c>
-      <c r="B1123" s="7"/>
+      <c r="B1123" s="9"/>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1124" s="3">
         <v>1121915979</v>
       </c>
-      <c r="B1124" s="7"/>
+      <c r="B1124" s="9"/>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1125" s="5">
         <v>1022999589</v>
       </c>
-      <c r="B1125" s="7"/>
+      <c r="B1125" s="9"/>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1126" s="5">
         <v>1006656639</v>
       </c>
-      <c r="B1126" s="7"/>
+      <c r="B1126" s="9"/>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1127" s="5">
         <v>1096196072</v>
       </c>
-      <c r="B1127" s="7"/>
+      <c r="B1127" s="9"/>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1128" s="5">
         <v>1034660761</v>
       </c>
-      <c r="B1128" s="7"/>
+      <c r="B1128" s="9"/>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1130" s="1">
@@ -6317,6 +6328,1571 @@
     <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1170" s="3">
         <v>1120499341</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1173" s="7">
+        <v>21176766</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1174" s="7">
+        <v>42986981</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1175" s="7">
+        <v>40415945</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1176" s="7">
+        <v>40448500</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1177" s="7">
+        <v>40405194</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1178" s="8">
+        <v>59671136</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1179" s="7">
+        <v>1024483160</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1180" s="8">
+        <v>21177991</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1181" s="7">
+        <v>40447815</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1182" s="8">
+        <v>14993451</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1183" s="8">
+        <v>40361978</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1184" s="7">
+        <v>86014300</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1185" s="7">
+        <v>1123084793</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1186" s="8">
+        <v>7818547</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1187" s="7">
+        <v>40413124</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1188" s="8">
+        <v>40412991</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1189" s="7">
+        <v>40215630</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1190" s="8">
+        <v>86040029</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1191" s="7">
+        <v>40447846</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1192" s="7">
+        <v>30347361</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1193" s="3">
+        <v>40429641</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1194" s="3">
+        <v>1120380003</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1195" s="5">
+        <v>40265797</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1196" s="3">
+        <v>1122132502</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1197" s="3">
+        <v>1120356609</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1198" s="3">
+        <v>31939677</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1199" s="3">
+        <v>40405846</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1200" s="3">
+        <v>1121820330</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1201" s="5">
+        <v>37559806</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1202" s="3">
+        <v>40396291</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1203" s="3">
+        <v>85449427</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1204" s="5">
+        <v>79849312</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1205" s="3">
+        <v>53093424</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1206" s="3">
+        <v>40450735</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1207" s="3">
+        <v>40266836</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1208" s="3">
+        <v>1121844576</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1209" s="3">
+        <v>31008060</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1210" s="3">
+        <v>39616373</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1211">
+        <v>1033774813</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1212" s="3">
+        <v>40432224</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1213" s="3">
+        <v>1119889226</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1214" s="3">
+        <v>1010193197</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1215" s="3">
+        <v>40422425</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1216" s="3">
+        <v>1122126675</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1217" s="3">
+        <v>52752142</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1218" s="3">
+        <v>1120353500</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1219" s="3">
+        <v>52469010</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1220" s="3">
+        <v>1122649705</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1221" s="3">
+        <v>21181515</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1222" s="5">
+        <v>1121148787</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1223" s="3">
+        <v>1006700030</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1224" s="3">
+        <v>1123530955</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1225" s="3">
+        <v>60264481</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1226" s="3">
+        <v>1073695360</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1227" s="3">
+        <v>1006449658</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1228" s="3">
+        <v>1016041709</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1229" s="3">
+        <v>1122137332</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1230" s="3">
+        <v>1122135332</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1231" s="5">
+        <v>53154537</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1232" s="3">
+        <v>1121146888</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1233" s="3">
+        <v>40185360</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1234" s="3">
+        <v>1121885145</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1235" s="3">
+        <v>40306120</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1236" s="5">
+        <v>40431599</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1237" s="5">
+        <v>30002107</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1238" s="3">
+        <v>1006689956</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1239" s="3">
+        <v>21202600</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1240">
+        <v>1121906197</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1241" s="3">
+        <v>1120356582</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1242" s="3">
+        <v>52881968</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1243" s="5">
+        <v>1000807612</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1244" s="3">
+        <v>39801680</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1245" s="3">
+        <v>1122145025</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1246" s="3">
+        <v>1121822628</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1247" s="3">
+        <v>1124217818</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1248" s="3">
+        <v>30981833</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1249" s="3">
+        <v>1126905997</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1250" s="3">
+        <v>40278351</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1251" s="5">
+        <v>31006869</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1252" s="3">
+        <v>21203424</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1253" s="3">
+        <v>1122136923</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1254" s="3">
+        <v>1124190794</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1255" s="3">
+        <v>1124243490</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1256" s="3">
+        <v>40400278</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1257" s="5">
+        <v>1124190027</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1258" s="5">
+        <v>40306131</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1259" s="3">
+        <v>1124218504</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1260" s="3">
+        <v>1124216166</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1261" s="5">
+        <v>40422019</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1262" s="5">
+        <v>1006697169</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1263" s="3">
+        <v>1122140761</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1264" s="3">
+        <v>1012425696</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1265" s="3">
+        <v>21202920</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1266" s="3">
+        <v>35255057</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1267" s="3">
+        <v>1120504924</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1268" s="3">
+        <v>1122140064</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1269" s="3">
+        <v>1127385585</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1270" s="3">
+        <v>1120384826</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1271" s="3">
+        <v>1123058967</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1272" s="3">
+        <v>40187549</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1273" s="3">
+        <v>1123115654</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1274" s="3">
+        <v>1120384377</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1275" s="3">
+        <v>40362271</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1276" s="3">
+        <v>26593620</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1277" s="5">
+        <v>1124216732</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1278" s="3">
+        <v>1120498573</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1279" s="3">
+        <v>40316428</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1280" s="3">
+        <v>1022938760</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1281" s="3">
+        <v>1074131461</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1282" s="3">
+        <v>1085343145</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1283" s="3">
+        <v>1122124846</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1284" s="3">
+        <v>1122124916</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1285" s="3">
+        <v>1122144685</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1286" s="3">
+        <v>21183385</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1287" s="3">
+        <v>1121909358</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1288" s="3">
+        <v>1122651037</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1289" s="3">
+        <v>1006779225</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1290" s="3">
+        <v>53016403</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1291" s="3">
+        <v>1120376987</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1292" s="3">
+        <v>1120387091</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1293" s="3">
+        <v>40447469</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1294" s="5">
+        <v>1120355361</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1295" s="3">
+        <v>1121931227</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1296" s="5">
+        <v>30081386</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1297" s="3">
+        <v>1122127781</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1298" s="3">
+        <v>40434094</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1299" s="3">
+        <v>40775505</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1300" s="5">
+        <v>1122138895</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1301" s="3">
+        <v>51907408</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1302" s="3">
+        <v>1123566252</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1303" s="3">
+        <v>1123566613</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1304" s="5">
+        <v>21940107</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1305" s="3">
+        <v>30030986</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1306" s="3">
+        <v>66865834</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1307" s="3">
+        <v>40447278</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1308" s="3">
+        <v>1070331092</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1309" s="3">
+        <v>1121824758</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1310" s="3">
+        <v>96195073</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1311" s="3">
+        <v>1122646913</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1312" s="3">
+        <v>1122144983</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1313" s="5">
+        <v>40187078</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1314" s="3">
+        <v>40447086</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1315" s="3">
+        <v>1124828578</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1316" s="3">
+        <v>40430721</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1317" s="3">
+        <v>40434032</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1318" s="3">
+        <v>1120506939</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1319" s="5">
+        <v>40433512</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1320" s="5">
+        <v>18598661</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1321" s="3">
+        <v>30080869</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1322" s="3">
+        <v>52116345</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1323" s="5">
+        <v>86009284</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1324" s="3">
+        <v>1119888577</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1325" s="3">
+        <v>1006904343</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1326" s="3">
+        <v>1120474468</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1327" s="3">
+        <v>1006693742</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1328" s="3">
+        <v>1120387777</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1329" s="3">
+        <v>65795239</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1330" s="3">
+        <v>1005293697</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1331" s="5">
+        <v>31006780</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1332" s="3">
+        <v>40415550</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1333" s="3">
+        <v>1122119431</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1334" s="3">
+        <v>40447519</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1335" s="5">
+        <v>28845786</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1336" s="5">
+        <v>1071304162</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1337" s="3">
+        <v>1122652696</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1338" s="3">
+        <v>1122126119</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1339" s="3">
+        <v>1122627123</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1340" s="3">
+        <v>1120373174</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1341" s="3">
+        <v>36173037</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1342" s="3">
+        <v>1023861468</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1343" s="3">
+        <v>1118535887</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1344" s="3">
+        <v>52552056</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1345" s="3">
+        <v>1123862467</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1346" s="3">
+        <v>1121903136</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1347" s="5">
+        <v>1120373472</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1348" s="3">
+        <v>1006737197</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1349" s="5">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1350" s="3">
+        <v>40442969</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1351" s="3">
+        <v>28907825</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1352" s="5">
+        <v>1104184087</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1353" s="5">
+        <v>1098436557</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1354" s="3">
+        <v>1120506274</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1355" s="3">
+        <v>1006877419</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1356" s="3">
+        <v>1006867028</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1357" s="5">
+        <v>21182488</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1358" s="3">
+        <v>1121923324</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1359" s="3">
+        <v>1002681230</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1360" s="3">
+        <v>1002733121</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1361" s="3">
+        <v>1121846021</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1362" s="3">
+        <v>1006903629</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1363" s="3">
+        <v>1006691122</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1364" s="5">
+        <v>1076200860</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1365" s="3">
+        <v>40393137</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1366" s="3">
+        <v>40421967</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1367" s="3">
+        <v>1006774918</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1368" s="3">
+        <v>1121823059</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1369" s="3">
+        <v>1122118438</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1370" s="3">
+        <v>1122506145</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1371" s="3">
+        <v>1006690715</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1372" s="5">
+        <v>1118562246</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1373" s="5">
+        <v>1012413227</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1374" s="5">
+        <v>1005181518</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1375" s="3">
+        <v>1120387240</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1376" s="3">
+        <v>1193581832</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1377" s="3">
+        <v>1193128654</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1378" s="3">
+        <v>31031916</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1379" s="3">
+        <v>1024516175</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1380" s="3">
+        <v>1006737670</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1381" s="3">
+        <v>1006661215</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1382" s="3">
+        <v>1122137585</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1383" s="3">
+        <v>1120378198</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1384" s="5">
+        <v>1119887995</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1385" s="5">
+        <v>1120369362</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1386" s="3">
+        <v>1006717092</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1387" s="3">
+        <v>1006729382</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1388" s="5">
+        <v>1006777681</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1389" s="3">
+        <v>40316571</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1390" s="5">
+        <v>80266280</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1391" s="3">
+        <v>1101687452</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1392" s="3">
+        <v>1006717478</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1393" s="5">
+        <v>1120362791</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1394" s="3">
+        <v>40434945</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1395" s="5">
+        <v>1111197763</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1396" s="3">
+        <v>1006688609</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1397" s="5">
+        <v>1121875236</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1398" s="3">
+        <v>1006778905</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1399" s="3">
+        <v>1122117276</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1400" s="5">
+        <v>1122138809</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1401" s="3">
+        <v>1123058148</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1402" s="3">
+        <v>1123565795</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1403" s="3">
+        <v>40341027</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1404" s="3">
+        <v>1120387069</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1405" s="3">
+        <v>1123564388</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1406" s="5">
+        <v>1123512956</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1407" s="5">
+        <v>1121416747</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1408" s="3">
+        <v>1020824438</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1409" s="3">
+        <v>1000834345</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1410" s="3">
+        <v>1193547301</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1411" s="3">
+        <v>20699563</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1412" s="5">
+        <v>1120498474</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1413" s="3">
+        <v>1006779481</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1414" s="3">
+        <v>41241858</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1415" s="5">
+        <v>1123114456</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1416" s="5">
+        <v>40405695</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1417" s="3">
+        <v>52096535</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1418" s="3">
+        <v>1120472391</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1419" s="5">
+        <v>1120372119</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1420" s="5">
+        <v>1123114061</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1421" s="5">
+        <v>1121903090</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1422" s="3">
+        <v>1123087731</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1423" s="3">
+        <v>1122144884</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1424" s="3">
+        <v>1015996912</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1425" s="3">
+        <v>1121905136</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1426" s="3">
+        <v>1120924575</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1427" s="3">
+        <v>1122125305</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1428" s="3">
+        <v>1006777428</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1429" s="3">
+        <v>1118020889</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1430" s="3">
+        <v>1122918095</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1431" s="3">
+        <v>1120352059</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1432" s="5">
+        <v>1116505062</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1433" s="3">
+        <v>1003530338</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1434" s="3">
+        <v>1121953048</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1435" s="3">
+        <v>1005856097</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1436" s="3">
+        <v>1123863140</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1437" s="5">
+        <v>1006697920</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1438" s="5">
+        <v>40265478</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1439" s="3">
+        <v>1023367834</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1440" s="3">
+        <v>1120844914</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1441" s="5">
+        <v>1123085348</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1442" s="3">
+        <v>1121872052</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1443" s="3">
+        <v>1006876003</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1444" s="3">
+        <v>1072593142</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1445" s="3">
+        <v>1006794764</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1446" s="3">
+        <v>1120924057</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1447" s="5">
+        <v>1120006623</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1448" s="3">
+        <v>1122626591</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1449" s="3">
+        <v>30946278</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1450" s="5">
+        <v>1122646404</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1451" s="3">
+        <v>80904798</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1452" s="3">
+        <v>1122132070</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1453" s="5">
+        <v>1056771673</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1454" s="5">
+        <v>21991161</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1455" s="5">
+        <v>40445242</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1456" s="5">
+        <v>1120381379</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1457" s="5">
+        <v>1121921932</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1458" s="3">
+        <v>1120818086</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1459" s="3">
+        <v>1122123029</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1460" s="5">
+        <v>1000693714</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1461" s="3">
+        <v>1096037708</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1462" s="3">
+        <v>1122143934</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1463" s="3">
+        <v>1006692935</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1464" s="5">
+        <v>1005319257</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1465" s="5">
+        <v>1193112708</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1466" s="3">
+        <v>1120560790</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1467" s="3">
+        <v>1122139765</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1468" s="3">
+        <v>1033740918</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1469" s="3">
+        <v>1090438876</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1470" s="3">
+        <v>1122119691</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1471" s="3">
+        <v>1123864028</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1472" s="5">
+        <v>1120355934</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1473" s="5">
+        <v>1016945097</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1474" s="3">
+        <v>1122653258</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1475" s="5">
+        <v>1006777121</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1476" s="3">
+        <v>65783261</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1477" s="5">
+        <v>1121146244</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1478" s="5">
+        <v>1123515171</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1479" s="3">
+        <v>1006866651</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1480" s="3">
+        <v>1001270374</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1481" s="3">
+        <v>1120504886</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1482" s="3">
+        <v>1234788097</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1483" s="5">
+        <v>1006874253</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1484" s="5">
+        <v>1123567290</v>
       </c>
     </row>
   </sheetData>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54956A07-0C8F-45D6-A6BD-5737F73DB889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1ADF05-0940-40DB-8651-4123514A504E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="2160" windowWidth="5976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>VILLAVICENCIO 1</t>
   </si>
@@ -52,6 +43,9 @@
   </si>
   <si>
     <t>3/10/2025 1:38PM</t>
+  </si>
+  <si>
+    <t>3/10/2025 10:39pm</t>
   </si>
 </sst>
 </file>
@@ -426,473 +420,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1484"/>
+  <dimension ref="A1:F1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1427" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1444" sqref="K1444"/>
+    <sheetView tabSelected="1" topLeftCell="A1607" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1610" sqref="B1610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="58.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>45791</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1006821627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1077149278</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>40368515</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1192743190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1121878089</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1119890171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1072396082</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1121931043</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1122650113</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1121845186</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45792</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1121897176</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>40326021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1121934940</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1000595005</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1083039676</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>53040907</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1121836997</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1019005098</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1060361611</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1121943940</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1005205794</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1026256364</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1121928922</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1006773031</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1121963531</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1007741740</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1043017512</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1121851851</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1121891196</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1123567290</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45793</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1122508546</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1121942513</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1121954260</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1121961948</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1121933670</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1193533765</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1121840404</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1121924113</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1123432927</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1006533593</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>24191764</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1123433465</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1121944590</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1121888989</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1006794956</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1111480635</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>1121921816</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>1080041335</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1124990366</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45795</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1193533765</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>1121921816</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1080041335</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1124990366</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>1006879089</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1082846258</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1119946010</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>24550220</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>40396162</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>40402893</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>40439332</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>40403408</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>40437151</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>40396234</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>39812281</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>52726719</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>1067464886</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>24868951</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>1122647222</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>28648829</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>30082534</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>1121848267</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>20855437</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>1121817837</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>1004049668</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>1193112708</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>1006795214</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>1121946676</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>40326924</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>40328322</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>1121948601</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1121964172</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>1121928277</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>1234792562</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45797</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>40402893</v>
       </c>
@@ -900,202 +894,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>40396234</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>40326924</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>1119886912</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>1121856573</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>40332263</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>1193225061</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>40326898</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>40445689</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>1121932051</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>1121946945</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1121941349</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>1121922183</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1121915260</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1020782838</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>1121966813</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>1121826276</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>31411863</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>1120872891</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>1121927137</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>52197305</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>1121880658</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>40399479</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1121899263</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>1121881809</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>43846191</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1019052749</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1121909494</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1121884066</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1121956325</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>1027950201</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>1234791134</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>1121954641</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>1006824895</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>1006858822</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>1006794764</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>51726859</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>68297670</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>1006827060</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>1003764198</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>40449322</v>
       </c>
@@ -1103,107 +1097,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>40329872</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>40219846</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>33875522</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>50976844</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>35263486</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>30081591</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>40371629</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>41213156</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>40367231</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>37671025</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>30080371</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>40188151</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>40334977</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1120498000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>40403787</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>1121891980</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>1121864632</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>52655858</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>1069900532</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45798</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>40402893</v>
       </c>
@@ -1211,57 +1205,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>1121932051</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>1020782838</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>1121966813</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>40399479</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>1121899263</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>1121881809</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>43846191</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>1019052749</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>1121909494</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>68297670</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>1121847839</v>
       </c>
@@ -1269,197 +1263,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>39648983</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1007702703</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>1121857800</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>40218053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1072395724</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>1121881992</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>1143252992</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>1121957643</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>40390505</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>1075277227</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>40394841</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>1006828058</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>1121960138</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1121836742</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1121871447</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>40218016</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>1121824999</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>1057574560</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>1121852594</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>1125552959</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>40331222</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1056782595</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>1006772734</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>1121946820</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>1121893657</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>1012331970</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1012342436</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>1121913229</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>1121838640</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>52619648</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>1121896005</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>40188434</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>40444722</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1193557701</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>38290869</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>52205911</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1121817317</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>1127391633</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>1121899263</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B203" s="5">
         <v>1121909494</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>1121909494</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>68297670</v>
       </c>
@@ -1483,7 +1477,7 @@
         <v>68297670</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B205" s="3">
         <v>40218053</v>
       </c>
@@ -1491,7 +1485,7 @@
         <v>40218016</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B206" s="5">
         <v>40218016</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>1121946820</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B207" s="3">
         <v>1057574560</v>
       </c>
@@ -1507,7 +1501,7 @@
         <v>1121896005</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>1121946820</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>38290869</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B209" s="5">
         <v>1121896005</v>
       </c>
@@ -1523,7 +1517,7 @@
         <v>1121946821</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B210" s="5">
         <v>38290869</v>
       </c>
@@ -1531,4362 +1525,4362 @@
         <v>1121965996</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45883</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>40449322</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>40329872</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>40219846</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>33875522</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>50976844</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>30081591</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>40371629</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>41213156</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>40367231</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>37671025</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>30080371</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>40188151</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>40334977</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>1120498000</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>40403787</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>1121891980</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>1121864632</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>52655858</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>1069900532</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>1121847839</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>39648983</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>1007702703</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>1121857800</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>40218053</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>1072395724</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>1121881992</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>1143252992</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>1121957643</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>40390505</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>1075277227</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>40394841</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>1006828058</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>1121960138</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>1121836742</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>1121871447</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>40218016</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>1121824999</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>1057574560</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>1121852594</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>1125552959</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>40331222</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>1056782595</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>1006772734</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>1121946820</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>1121893657</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>1012331970</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>1012342436</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>1121913229</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>1121838640</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>52619648</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>40188434</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>40444722</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>1193557701</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>38290869</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>52205911</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>1121817317</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>1121899304</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>1121925708</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>51883053</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>52977026</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1234790567</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>1006335084</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>1121918538</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>1116439136</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>1121915532</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>1006835763</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>1005566462</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>1121146010</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>1120559199</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>1006690427</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>1010123626</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>1123140904</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>1193221023</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>1014243158</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>1000580172</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>1085280827</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>1002577155</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>1120560790</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>1121935079</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>1006827679</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>1007730620</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>1121923083</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>1014306063</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>1121849836</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>1122507401</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>1120926035</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>1121830619</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>1006695715</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>1121965996</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
         <v>1006692119</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>1121931253</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>1013674750</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>1120870248</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>1234789628</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
         <v>1106775925</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>1121966736</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45884</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
         <v>37671025</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>52655858</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>1121881992</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>1075277227</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>40218016</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>52205911</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>1121146010</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
         <v>1123140904</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>1014243158</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>1085280827</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>1006692119</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>1106775925</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
         <v>1121968595</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>40400188</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>1121844971</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>42548918</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>1006874896</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
         <v>86086391</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>1123803651</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>1121873859</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>1121955504</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
         <v>1121946818</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>40392197</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>1121915258</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>1121879243</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>1000832681</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>1121892958</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>1121853595</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>1127382143</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>1122653540</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>1123561702</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>1121879341</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>1121879341</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>1019005098</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
         <v>37671025</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>1123140904</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>1121968595</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
         <v>86086391</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>1121946818</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45890</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>37671025</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>86086391</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>24550220</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>40396162</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>40402893</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>40439332</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>40403408</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>40437151</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>40396234</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>39812281</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>52726719</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>1067464886</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>24868951</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>1122647222</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>37671025</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>30082534</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>1121848267</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
         <v>20855437</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>1121817837</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>1004049668</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>1006795214</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>1121946676</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>40326924</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
         <v>40328322</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>1121948601</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>1121964172</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
         <v>1121928277</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>1234792562</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>1119886912</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>1121856573</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>40332263</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>1193225061</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>40326898</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>40445689</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>1121932051</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>1121946945</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>1121941349</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>1121922183</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>1121915260</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>1020782838</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>1121966813</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>1121826276</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>31411863</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>1120872891</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>1121927137</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>52197305</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>1121880658</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>40399479</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>1121899263</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>1121881809</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>43846191</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>1121909494</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>1121956325</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>1234791134</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>1121954641</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>1006824895</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>1006858822</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>1006827060</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>1003764198</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>1006821627</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>40368515</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>1192743190</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>1121878089</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>1119890171</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>1121931043</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>1122650113</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>1121845186</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>1121897176</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>40326021</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>1121934940</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>1000595005</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>53040907</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>1121836997</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>1060361611</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>1121943940</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>1005205794</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>1026256364</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>1121928922</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>1006773031</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>1121963531</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>1007741740</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>1043017512</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>1121851851</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>1121891196</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>1122508546</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>1121942513</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>1121954260</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>1121961948</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>1121933670</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>1193533765</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>1121840404</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>40439256</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>1123432927</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>1006533593</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>24191764</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>1123433465</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>1121944590</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>1121888989</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>1006794956</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>1111480635</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>1121921816</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>1080041335</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>28648829</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>1193112708</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>1124990366</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>1082846258</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>1119946010</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
         <v>20855437</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>40328322</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>1121928277</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>1121845186</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>1122508546</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>1121961948</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
         <v>20855437</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>45910</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="6">
         <v>20855437</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="6">
         <v>24550220</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="6">
         <v>40396162</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="6">
         <v>40402893</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
         <v>17303753</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="6">
         <v>40439332</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="6">
         <v>40403408</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="6">
         <v>40437151</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
         <v>17345135</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="6">
         <v>40396234</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="6">
         <v>39812281</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="5">
         <v>11405158</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
         <v>40384750</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
         <v>26508842</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="6">
         <v>52726719</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="6">
         <v>1067464886</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="6">
         <v>40373434</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
         <v>30080583</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
         <v>52812191</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="6">
         <v>24868951</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="6">
         <v>1122647222</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="6">
         <v>30082534</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="6">
         <v>1121848267</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="6">
         <v>1121817837</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="6">
         <v>1004049668</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="6">
         <v>1006795214</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
         <v>1121946676</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="6">
         <v>40326924</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="6">
         <v>40328322</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="6">
         <v>1121948601</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="6">
         <v>1121964172</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="6">
         <v>1121928277</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="6">
         <v>1234792562</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="6">
         <v>1119886912</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="6">
         <v>1121856573</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="6">
         <v>40332263</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="6">
         <v>1193225061</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="6">
         <v>40326898</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="6">
         <v>40445689</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="6">
         <v>1121932051</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="6">
         <v>1121946945</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="6">
         <v>63301345</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="6">
         <v>1121941349</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="6">
         <v>1121922183</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
         <v>1121915260</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="6">
         <v>1020782838</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="6">
         <v>1121966813</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="6">
         <v>1121826276</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="6">
         <v>31411863</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="6">
         <v>1120872891</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="6">
         <v>1121927137</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="6">
         <v>52197305</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="6">
         <v>1121880658</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="6">
         <v>40399479</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="6">
         <v>1121899263</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="6">
         <v>1121881809</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="6">
         <v>43846191</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="6">
         <v>1121909494</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="6">
         <v>1121884066</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="6">
         <v>1121956325</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="6">
         <v>1234791134</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="6">
         <v>1121954641</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="6">
         <v>1006824895</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="6">
         <v>1006858822</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>68297670</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="6">
         <v>1006827060</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="6">
         <v>1003764198</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="6">
         <v>1006821627</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="6">
         <v>40368515</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
         <v>89090060826</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>890900608214</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
         <v>890900608211</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="6">
         <v>1121878089</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="6">
         <v>1119890171</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="6">
         <v>1072396082</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="6">
         <v>1121931043</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
         <v>89090060825</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="6">
         <v>1122650113</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
         <v>1121845186</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="6">
         <v>1121897176</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="6">
         <v>40326021</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="6">
         <v>1121934940</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="6">
         <v>89090060823</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="6">
         <v>1000595005</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
         <v>89090060822</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="6">
         <v>53040907</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="6">
         <v>1121836997</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="6">
         <v>1019005098</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" s="6">
         <v>1060361611</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="6">
         <v>1121943940</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="6">
         <v>1005205794</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" s="6">
         <v>1026256364</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="6">
         <v>1121928922</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="6">
         <v>1006773031</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" s="6">
         <v>1121963531</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="6">
         <v>1007741740</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="6">
         <v>1043017512</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
         <v>8909006082</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
         <v>890900608213</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
         <v>89090060821</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" s="6">
         <v>1121851851</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="6">
         <v>1121891196</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
         <v>89090060829</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" s="5">
         <v>890900608212</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
         <v>89090060824</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="5">
         <v>89090060827</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
         <v>89090060828</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
         <v>890900608210</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="6">
         <v>1077940030</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" s="5">
         <v>1122508546</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" s="6">
         <v>1121942513</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="6">
         <v>1121954260</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" s="6">
         <v>1121961948</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="6">
         <v>1121933670</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="6">
         <v>1193533765</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" s="6">
         <v>1121840404</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" s="6">
         <v>1123432927</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609" s="6">
         <v>1006533593</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" s="6">
         <v>1123431065</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" s="6">
         <v>24191764</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612" s="6">
         <v>1122512578</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" s="6">
         <v>1121820593</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" s="6">
         <v>1007741666</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615" s="6">
         <v>1123433465</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" s="6">
         <v>1121944590</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" s="6">
         <v>1121888989</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618" s="6">
         <v>1006794956</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" s="6">
         <v>1111480635</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" s="6">
         <v>1121921816</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621" s="6">
         <v>1080041335</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" s="6">
         <v>28648829</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" s="6">
         <v>1045107097</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
         <v>1121931238</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" s="6">
         <v>1124990366</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" s="6">
         <v>1121918977</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" s="6">
         <v>1082846258</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" s="6">
         <v>1119946010</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" s="6">
         <v>1006876240</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>45911</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
         <v>17303753</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" s="5">
         <v>17345135</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
         <v>11405158</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" s="5">
         <v>40384750</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
         <v>26508842</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" s="5">
         <v>30080583</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
         <v>52812191</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" s="3">
         <v>1121946676</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" s="3">
         <v>1121915260</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>68297670</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
         <v>89090060826</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
         <v>890900608214</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
         <v>890900608211</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
         <v>89090060825</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645" s="3">
         <v>1121845186</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" s="5">
         <v>89090060822</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
         <v>8909006082</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648" s="5">
         <v>890900608213</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649" s="5">
         <v>89090060821</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" s="5">
         <v>89090060829</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A651" s="5">
         <v>890900608212</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" s="5">
         <v>89090060824</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" s="5">
         <v>89090060827</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654" s="5">
         <v>89090060828</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" s="5">
         <v>890900608210</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" s="3">
         <v>1122508546</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657" s="5">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
         <v>1121931238</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" s="3">
         <v>17303753</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660" s="3">
         <v>17345135</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" s="3">
         <v>11405158</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" s="3">
         <v>40384750</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663" s="3">
         <v>26508842</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" s="3">
         <v>30080583</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" s="3">
         <v>52812191</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>68297670</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" s="3">
         <v>89090060826</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" s="5">
         <v>890900608214</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669" s="5">
         <v>890900608211</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" s="5">
         <v>89090060825</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" s="3">
         <v>89090060822</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672" s="5">
         <v>8909006082</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673" s="5">
         <v>890900608213</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" s="5">
         <v>89090060821</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675" s="5">
         <v>89090060829</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" s="5">
         <v>890900608212</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" s="5">
         <v>89090060824</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" s="5">
         <v>89090060827</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A679" s="5">
         <v>89090060828</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" s="5">
         <v>890900608210</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681" s="3">
         <v>1121902371</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>45931</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A684" s="5">
         <v>30080356</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A685" s="3">
         <v>21236224</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686" s="5">
         <v>21229026</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A687" s="5">
         <v>39727147</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688" s="5">
         <v>17329021</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A689" s="5">
         <v>39728361</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A690" s="5">
         <v>40367231</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A691" s="5">
         <v>37671025</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A692" s="3">
         <v>30080371</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A693" s="5">
         <v>40188151</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A694" s="5">
         <v>40334977</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695" s="5">
         <v>1120498000</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A696" s="5">
         <v>40403787</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697" s="5">
         <v>1121891980</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698" s="5">
         <v>1121864632</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A699" s="5">
         <v>40332711</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700" s="3">
         <v>52655858</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701" s="3">
         <v>1069900532</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A702" s="5">
         <v>1121847839</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703" s="3">
         <v>40413127</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A704" s="5">
         <v>40413367</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A705" s="5">
         <v>39648983</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706" s="5">
         <v>1007702703</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707" s="3">
         <v>1121857800</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A708" s="5">
         <v>40218053</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A709" s="5">
         <v>1006442026</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A710" s="3">
         <v>1006774169</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A711" s="3">
         <v>1121906325</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712" s="5">
         <v>1121892958</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713" s="5">
         <v>1072395724</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A714" s="3">
         <v>1121842098</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715" s="3">
         <v>1121881992</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716" s="3">
         <v>1121855560</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A717" s="3">
         <v>1001092252</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718" s="5">
         <v>1143252992</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719" s="5">
         <v>35261784</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A720" s="3">
         <v>1121964736</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721" s="3">
         <v>1006775869</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722" s="5">
         <v>40394987</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A723" s="3">
         <v>1075685562</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724" s="5">
         <v>40442006</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A725" s="5">
         <v>1001118801</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A726" s="3">
         <v>26163691</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A727" s="5">
         <v>40390505</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A728" s="5">
         <v>1121955504</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A729" s="5">
         <v>1000832681</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A730" s="5">
         <v>1121849388</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A731" s="3">
         <v>1121944032</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A732" s="3">
         <v>1122652964</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733" s="5">
         <v>1121818890</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A734" s="5">
         <v>1121954646</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A735" s="5">
         <v>21242719</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A736" s="5">
         <v>1121844971</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A737" s="3">
         <v>1006775707</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A738" s="5">
         <v>40215468</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A739" s="5">
         <v>1075277227</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>1118291987</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A741" s="3">
         <v>40443728</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A742" s="5">
         <v>1121873859</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A743" s="5">
         <v>1121821756</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A744" s="3">
         <v>42031731</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A745" s="5">
         <v>1122653540</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A746" s="3">
         <v>30083822</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A747" s="5">
         <v>86086391</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A748" s="3">
         <v>40394841</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A749" s="5">
         <v>1006828058</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A750" s="3">
         <v>1121960138</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A751" s="3">
         <v>40334349</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A752" s="3">
         <v>20851383</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A753" s="3">
         <v>1121836742</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754" s="5">
         <v>1121871447</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755" s="3">
         <v>1007228432</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756" s="5">
         <v>40218016</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757" s="3">
         <v>1121824999</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758" s="5">
         <v>1121917747</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A759" s="5">
         <v>1121827017</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760" s="3">
         <v>1057574560</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761" s="5">
         <v>1121862649</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A762" s="3">
         <v>40217183</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A763" s="3">
         <v>40325663</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A764" s="5">
         <v>1006798198</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A765" s="5">
         <v>1121852594</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766" s="5">
         <v>1121946818</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767" s="5">
         <v>1125552959</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A768" s="5">
         <v>40331222</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769" s="5">
         <v>1056782595</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770" s="5">
         <v>1006772734</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A771" s="5">
         <v>1121893657</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772" s="3">
         <v>1193092381</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773" s="5">
         <v>1121849200</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A774" s="3">
         <v>1012331970</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775" s="3">
         <v>1012342436</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776" s="3">
         <v>1121853595</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A777" s="3">
         <v>35587282</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778" s="5">
         <v>1014184746</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779" s="5">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A780" s="3">
         <v>40326656</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781" s="5">
         <v>1007413869</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782" s="5">
         <v>1006828141</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A783" s="3">
         <v>1121841888</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784" s="3">
         <v>52619648</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785" s="5">
         <v>1122138078</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786" s="3">
         <v>40186281</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787" s="3">
         <v>40371926</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788" s="5">
         <v>1121896390</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A789" s="3">
         <v>35261879</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790" s="5">
         <v>40401474</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791" s="5">
         <v>1121824236</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A792" s="5">
         <v>1123561577</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793" s="5">
         <v>40325807</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794" s="5">
         <v>40441092</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A795" s="3">
         <v>40188434</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796" s="3">
         <v>40402375</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797" s="3">
         <v>40444722</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A798" s="3">
         <v>1193557701</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799" s="5">
         <v>38290869</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800" s="3">
         <v>52205911</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801" s="3">
         <v>21231994</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A802" s="3">
         <v>1121920906</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803" s="3">
         <v>42548918</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A804" s="3">
         <v>40441978</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805" s="5">
         <v>1123801589</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806" s="3">
         <v>1121817317</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A807" s="5">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808" s="3">
         <v>1121915258</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809" s="3">
         <v>1121899304</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A810" s="5">
         <v>40386471</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811" s="3">
         <v>1121925708</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812" s="3">
         <v>1121846671</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A813" s="3">
         <v>40400188</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814" s="3">
         <v>1121968595</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815" s="3">
         <v>1006874896</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A816" s="3">
         <v>51883053</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817" s="5">
         <v>1030623737</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818" s="5">
         <v>40388244</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819" s="3">
         <v>37397372</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820" s="5">
         <v>52977026</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821" s="3">
         <v>40392197</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822" s="3">
         <v>1121823721</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823" s="5">
         <v>52862750</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824" s="5">
         <v>1007741689</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825" s="5">
         <v>40189602</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826" s="5">
         <v>1234790567</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827" s="5">
         <v>1006335084</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828" s="3">
         <v>1121849738</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829" s="3">
         <v>1099210766</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830" s="3">
         <v>1121918538</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831" s="3">
         <v>1116439136</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832" s="5">
         <v>1234789507</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>1033748818</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834" s="3">
         <v>1121908839</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836" s="5">
         <v>1121915532</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837" s="5">
         <v>1120378354</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838" s="3">
         <v>1006835763</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839" s="5">
         <v>1007816099</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840" s="5">
         <v>1005566462</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841" s="5">
         <v>1005294945</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842" s="5">
         <v>1122655308</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843" s="3">
         <v>1123561702</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844" s="5">
         <v>1006775023</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845" s="5">
         <v>1006797846</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846" s="5">
         <v>1003583504</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847" s="5">
         <v>1121146010</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848" s="5">
         <v>1122653301</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" s="3">
         <v>1121879243</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" s="3">
         <v>1120365722</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" s="3">
         <v>1121948797</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852" s="3">
         <v>1120559199</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" s="3">
         <v>1006690427</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" s="3">
         <v>1121720012</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855" s="3">
         <v>1121961367</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856" s="5">
         <v>40186992</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857" s="5">
         <v>1010123626</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858" s="5">
         <v>1234789441</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859" s="5">
         <v>1123431666</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860" s="5">
         <v>1006859731</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861" s="5">
         <v>1120385112</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862" s="5">
         <v>1121921356</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863" s="5">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A864" s="5">
         <v>1123140904</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865" s="5">
         <v>1010031875</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866" s="5">
         <v>46376887</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A867" s="5">
         <v>1006820624</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868" s="5">
         <v>1121833506</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869" s="5">
         <v>1121888058</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A870" s="5">
         <v>1122919487</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871" s="5">
         <v>1193221023</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A872" s="5">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A873" s="5">
         <v>1069735886</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A874" s="5">
         <v>1007437551</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <v>45931</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A877" s="3">
         <v>30080356</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A878" s="5">
         <v>21229026</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A879" s="5">
         <v>39727147</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A880" s="5">
         <v>17329021</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A881" s="5">
         <v>39728361</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A882" s="3">
         <v>40367231</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A883" s="5">
         <v>37671025</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A884" s="3">
         <v>40188151</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A885" s="5">
         <v>40334977</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A886" s="3">
         <v>1120498000</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A887" s="3">
         <v>40403787</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A888" s="3">
         <v>1121891980</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A889" s="3">
         <v>1121864632</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A890" s="3">
         <v>40332711</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A891" s="3">
         <v>1121847839</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A892" s="5">
         <v>40413367</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A893" s="3">
         <v>39648983</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A894" s="3">
         <v>1007702703</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A895" s="5">
         <v>40218053</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A896" s="3">
         <v>1006442026</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A897" s="5">
         <v>1121892958</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A898" s="3">
         <v>1072395724</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A899" s="3">
         <v>1143252992</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A900" s="3">
         <v>35261784</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A901" s="3">
         <v>40394987</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A902" s="3">
         <v>40442006</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A903" s="3">
         <v>1001118801</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A904" s="3">
         <v>40390505</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A905" s="3">
         <v>1121955504</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A906" s="3">
         <v>1000832681</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A907" s="3">
         <v>1121849388</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A908" s="3">
         <v>1121818890</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A909" s="3">
         <v>1121954646</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A910" s="5">
         <v>21242719</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A911" s="3">
         <v>1121844971</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A912" s="3">
         <v>40215468</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A913" s="3">
         <v>1075277227</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A914" s="3">
         <v>1118291987</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A915" s="3">
         <v>1121873859</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A916" s="3">
         <v>1121821756</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A917" s="3">
         <v>1122653540</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A918" s="3">
         <v>86086391</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A919" s="3">
         <v>1006828058</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A920" s="3">
         <v>1121871447</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A921" s="3">
         <v>40218016</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A922" s="3">
         <v>1121917747</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A923" s="3">
         <v>1121827017</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A924" s="3">
         <v>1121862649</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A925" s="3">
         <v>1006798198</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A926" s="5">
         <v>1121852594</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A927" s="3">
         <v>1121946818</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A928" s="5">
         <v>1125552959</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A929" s="3">
         <v>40331222</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A930" s="5">
         <v>1056782595</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A931" s="3">
         <v>1006772734</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A932" s="3">
         <v>1121893657</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A933" s="3">
         <v>1121849200</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A934" s="3">
         <v>1014184746</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A935" s="5">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A936" s="5">
         <v>1007413869</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A937" s="3">
         <v>1006828141</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A938" s="5">
         <v>1122138078</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A939" s="3">
         <v>1121896390</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A940" s="5">
         <v>40401474</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A941" s="3">
         <v>1121824236</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A942" s="3">
         <v>1123561577</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A943" s="3">
         <v>40325807</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A944" s="3">
         <v>40441092</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A945" s="5">
         <v>38290869</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A946" s="3">
         <v>1123801589</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A947" s="3">
         <v>1127391633</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A948" s="5">
         <v>40386471</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A949" s="3">
         <v>1030623737</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A950" s="5">
         <v>40388244</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A951" s="3">
         <v>52977026</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A952" s="3">
         <v>52862750</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A953" s="3">
         <v>1007741689</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A954" s="3">
         <v>40189602</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A955" s="3">
         <v>1234790567</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A956" s="3">
         <v>1006335084</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A957" s="3">
         <v>1234789507</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A958" s="3">
         <v>1033748818</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A959" s="5">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A960" s="3">
         <v>1121915532</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A961" s="3">
         <v>1120378354</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A962" s="5">
         <v>1007816099</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A963" s="3">
         <v>1005566462</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A964" s="3">
         <v>1005294945</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A965" s="3">
         <v>1122655308</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A966" s="3">
         <v>1006775023</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A967" s="5">
         <v>1006797846</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A968" s="3">
         <v>1003583504</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A969" s="3">
         <v>1121146010</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A970" s="3">
         <v>1122653301</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A971" s="3">
         <v>40186992</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A972" s="3">
         <v>1010123626</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A973" s="3">
         <v>1234789441</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A974" s="3">
         <v>1123431666</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A975" s="3">
         <v>1006859731</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A976" s="3">
         <v>1120385112</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A977" s="3">
         <v>1121921356</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A978" s="5">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A979" s="3">
         <v>1123140904</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A980" s="3">
         <v>1010031875</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A981" s="3">
         <v>46376887</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A982" s="3">
         <v>1006820624</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A983" s="3">
         <v>1121833506</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A984" s="3">
         <v>1121888058</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A985" s="3">
         <v>1122919487</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A986" s="3">
         <v>1193221023</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A987" s="5">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A988" s="3">
         <v>1069735886</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A989" s="3">
         <v>1007437551</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A990" s="3">
         <v>1121931106</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A991" s="3">
         <v>1014243158</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A992" s="3">
         <v>1121944349</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A993" s="3">
         <v>1000580172</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A994" s="3">
         <v>1085280827</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A995" s="3">
         <v>1014292653</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A996" s="3">
         <v>52710556</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A997" s="3">
         <v>1121822749</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A998" s="3">
         <v>1001174715</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A999" s="3">
         <v>1123430278</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1000" s="3">
         <v>1022408192</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1001" s="3">
         <v>1121836926</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1002" s="3">
         <v>40333112</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1003" s="3">
         <v>1127382143</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1004" s="3">
         <v>1002577155</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1005" s="5">
         <v>24100971</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1006" s="3">
         <v>1002085841</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1007" s="3">
         <v>1121935079</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1008" s="3">
         <v>1006827679</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1009" s="3">
         <v>1006736555</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1010" s="3">
         <v>1029982510</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1011" s="3">
         <v>1001885026</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1012" s="3">
         <v>1121960484</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1013" s="3">
         <v>1007702953</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1014" s="3">
         <v>1006722113</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1015" s="5">
         <v>1029981260</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1016" s="3">
         <v>1007730620</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1017" s="3">
         <v>1007318395</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1018" s="3">
         <v>1121923083</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1019" s="3">
         <v>1014306063</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1020">
         <v>1097990010</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1021" s="3">
         <v>1121919401</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1022" s="3">
         <v>1022341095</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1023" s="3">
         <v>1233490733</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1024" s="3">
         <v>1123803651</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1025" s="3">
         <v>39570143</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1026" s="5">
         <v>1121849836</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1027" s="3">
         <v>1029982301</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1028" s="3">
         <v>52483077</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1029" s="3">
         <v>1121146397</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1030" s="3">
         <v>1006658626</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1031" s="3">
         <v>40439256</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1032" s="5">
         <v>52501176</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1033" s="3">
         <v>1121834547</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1034" s="3">
         <v>1122507401</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1035" s="3">
         <v>1121940276</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1036" s="3">
         <v>1122507035</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1037" s="3">
         <v>1013674750</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1038" s="3">
         <v>1122511768</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1039" s="3">
         <v>1122918696</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1040" s="3">
         <v>1120926035</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1041" s="5">
         <v>1121830619</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1042" s="3">
         <v>77777780</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1043" s="3">
         <v>1022960497</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1044" s="3">
         <v>1113692397</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1045" s="3">
         <v>1036840503</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1046" s="3">
         <v>1006695715</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1047" s="3">
         <v>63471947</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048" s="3">
         <v>1121965996</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1049" s="3">
         <v>1006692119</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1050" s="3">
         <v>1121931253</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1051" s="3">
         <v>40333161</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1052" s="3">
         <v>1120870248</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1053" s="3">
         <v>1120871550</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1054" s="3">
         <v>1123860010</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1055" s="5">
         <v>1077976735</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1056" s="3">
         <v>1234789628</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1057" s="3">
         <v>1065644681</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1058" s="3">
         <v>1006819843</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1059" s="5">
         <v>1005159244</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1060" s="5">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1061" s="5">
         <v>1006824446</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1062" s="3">
         <v>1193092480</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1063" s="5">
         <v>1121915979</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1064" s="3">
         <v>1122647759</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1065" s="3">
         <v>1121874758</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1066" s="3">
         <v>1005848328</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1067" s="3">
         <v>1121416122</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1068" s="3">
         <v>1007584794</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1069" s="3">
         <v>1121927207</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1070" s="3">
         <v>1122918521</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1071" s="3">
         <v>1003565669</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1072" s="3">
         <v>1106775925</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1073" s="3">
         <v>1121966736</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1074" s="3">
         <v>1121931564</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1075" s="3">
         <v>1121817727</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1076" s="5">
         <v>1022999589</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1077" s="5">
         <v>1006656639</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1078" s="5">
         <v>1096196072</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1079" s="3">
         <v>1122511568</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1080" s="3">
         <v>1118532809</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1081" s="3">
         <v>1006796310</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1082" s="3">
         <v>53062799</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1083" s="3">
         <v>1106888062</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1084" s="3">
         <v>1121844532</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1085" s="5">
         <v>1034660761</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1086" s="3">
         <v>1005848329</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1087" s="3">
         <v>1121817958</v>
       </c>
     </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1089" s="1">
         <v>45932</v>
       </c>
     </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1090" s="5">
         <v>21229026</v>
       </c>
@@ -5894,235 +5888,235 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1091" s="5">
         <v>39727147</v>
       </c>
       <c r="B1091" s="9"/>
     </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1092" s="5">
         <v>17329021</v>
       </c>
       <c r="B1092" s="9"/>
     </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1093" s="5">
         <v>39728361</v>
       </c>
       <c r="B1093" s="9"/>
     </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1094" s="5">
         <v>37671025</v>
       </c>
       <c r="B1094" s="9"/>
     </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1095" s="5">
         <v>40334977</v>
       </c>
       <c r="B1095" s="9"/>
     </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1096" s="5">
         <v>40413367</v>
       </c>
       <c r="B1096" s="9"/>
     </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1097" s="3">
         <v>40218053</v>
       </c>
       <c r="B1097" s="9"/>
     </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1098" s="5">
         <v>1121892958</v>
       </c>
       <c r="B1098" s="9"/>
     </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1099" s="5">
         <v>21242719</v>
       </c>
       <c r="B1099" s="9"/>
     </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1100" s="3">
         <v>1121852594</v>
       </c>
       <c r="B1100" s="9"/>
     </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1101" s="5">
         <v>1125552959</v>
       </c>
       <c r="B1101" s="9"/>
     </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1102" s="5">
         <v>1056782595</v>
       </c>
       <c r="B1102" s="9"/>
     </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1103" s="5">
         <v>1023035549</v>
       </c>
       <c r="B1103" s="9"/>
     </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1104" s="5">
         <v>1007413869</v>
       </c>
       <c r="B1104" s="9"/>
     </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1105" s="5">
         <v>1122138078</v>
       </c>
       <c r="B1105" s="9"/>
     </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1106" s="5">
         <v>40401474</v>
       </c>
       <c r="B1106" s="9"/>
     </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1107" s="5">
         <v>38290869</v>
       </c>
       <c r="B1107" s="9"/>
     </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1108" s="5">
         <v>40386471</v>
       </c>
       <c r="B1108" s="9"/>
     </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1109" s="3">
         <v>40388244</v>
       </c>
       <c r="B1109" s="9"/>
     </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1110" s="5">
         <v>1121946821</v>
       </c>
       <c r="B1110" s="9"/>
     </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1111" s="5">
         <v>1007816099</v>
       </c>
       <c r="B1111" s="9"/>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1112" s="5">
         <v>1006797846</v>
       </c>
       <c r="B1112" s="9"/>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1113" s="5">
         <v>1006774144</v>
       </c>
       <c r="B1113" s="9"/>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1114" s="5">
         <v>1121872788</v>
       </c>
       <c r="B1114" s="9"/>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1115" s="5">
         <v>24100971</v>
       </c>
       <c r="B1115" s="9"/>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1116" s="5">
         <v>1029981260</v>
       </c>
       <c r="B1116" s="9"/>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1117" s="3">
         <v>1097990010</v>
       </c>
       <c r="B1117" s="9"/>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1118" s="3">
         <v>52501176</v>
       </c>
       <c r="B1118" s="9"/>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1119" s="5">
         <v>1121830619</v>
       </c>
       <c r="B1119" s="9"/>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1120" s="5">
         <v>1077976735</v>
       </c>
       <c r="B1120" s="9"/>
     </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1121" s="5">
         <v>1005159244</v>
       </c>
       <c r="B1121" s="9"/>
     </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1122" s="5">
         <v>1006794572</v>
       </c>
       <c r="B1122" s="9"/>
     </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1123" s="5">
         <v>1006824446</v>
       </c>
       <c r="B1123" s="9"/>
     </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1124" s="3">
         <v>1121915979</v>
       </c>
       <c r="B1124" s="9"/>
     </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1125" s="5">
         <v>1022999589</v>
       </c>
       <c r="B1125" s="9"/>
     </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1126" s="5">
         <v>1006656639</v>
       </c>
       <c r="B1126" s="9"/>
     </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1127" s="5">
         <v>1096196072</v>
       </c>
       <c r="B1127" s="9"/>
     </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1128" s="5">
         <v>1034660761</v>
       </c>
       <c r="B1128" s="9"/>
     </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1130" s="1">
         <v>45932</v>
       </c>
@@ -6130,1768 +6124,2448 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1131" s="5">
         <v>21205258</v>
       </c>
     </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1132" s="3">
         <v>31006459</v>
       </c>
     </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1133" s="3">
         <v>21177007</v>
       </c>
     </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1134" s="5">
         <v>17360686</v>
       </c>
     </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1135" s="5">
         <v>51642333</v>
       </c>
     </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1136" s="3">
         <v>21199606</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1137" s="5">
         <v>3292415</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1138" s="5">
         <v>11373533</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1139" s="5">
         <v>30030456</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1140" s="5">
         <v>70052315</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1141" s="5">
         <v>3282146</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1142" s="5">
         <v>3045925</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1143" s="5">
         <v>21173140</v>
       </c>
     </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1144" s="5">
         <v>21234532</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1145" s="5">
         <v>6671921</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1146" s="3">
         <v>86010008</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1147" s="5">
         <v>4561950</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1148" s="3">
         <v>1119886285</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1149" s="5">
         <v>40422362</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1150" s="5">
         <v>40447756</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1151" s="3">
         <v>1122649188</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1152" s="3">
         <v>21182125</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1153" s="3">
         <v>30001167</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1154" s="3">
         <v>1122129288</v>
       </c>
     </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1155" s="3">
         <v>1122646151</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1156" s="3">
         <v>1122652108</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1157" s="3">
         <v>40315281</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1158" s="5">
         <v>19337954</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1159" s="5">
         <v>30055021</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1160" s="3">
         <v>40362749</v>
       </c>
     </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1161" s="5">
         <v>40446257</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1162" s="5">
         <v>40434896</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1163" s="3">
         <v>1123058626</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1164" s="3">
         <v>1122134224</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1165" s="5">
         <v>1123860656</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1166" s="5">
         <v>30055352</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1167" s="5">
         <v>40362705</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1168" s="3">
         <v>40449564</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1169" s="3">
         <v>23629227</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1170" s="3">
         <v>1120499341</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1173" s="7">
         <v>21176766</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1174" s="7">
         <v>42986981</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1175" s="7">
         <v>40415945</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1176" s="7">
         <v>40448500</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1177" s="7">
         <v>40405194</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1178" s="8">
         <v>59671136</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1179" s="7">
         <v>1024483160</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1180" s="8">
         <v>21177991</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1181" s="7">
         <v>40447815</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1182" s="8">
         <v>14993451</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1183" s="8">
         <v>40361978</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1184" s="7">
         <v>86014300</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1185" s="7">
         <v>1123084793</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1186" s="8">
         <v>7818547</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1187" s="7">
         <v>40413124</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1188" s="8">
         <v>40412991</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1189" s="7">
         <v>40215630</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1190" s="8">
         <v>86040029</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1191" s="7">
         <v>40447846</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1192" s="7">
         <v>30347361</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1193" s="3">
         <v>40429641</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1194" s="3">
         <v>1120380003</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1195" s="5">
         <v>40265797</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1196" s="3">
         <v>1122132502</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1197" s="3">
         <v>1120356609</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1198" s="3">
         <v>31939677</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1199" s="3">
         <v>40405846</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1200" s="3">
         <v>1121820330</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1201" s="5">
         <v>37559806</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1202" s="3">
         <v>40396291</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1203" s="3">
         <v>85449427</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1204" s="5">
         <v>79849312</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1205" s="3">
         <v>53093424</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1206" s="3">
         <v>40450735</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1207" s="3">
         <v>40266836</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1208" s="3">
         <v>1121844576</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1209" s="3">
         <v>31008060</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1210" s="3">
         <v>39616373</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1211">
         <v>1033774813</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1212" s="3">
         <v>40432224</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1213" s="3">
         <v>1119889226</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1214" s="3">
         <v>1010193197</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1215" s="3">
         <v>40422425</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1216" s="3">
         <v>1122126675</v>
       </c>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1217" s="3">
         <v>52752142</v>
       </c>
     </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1218" s="3">
         <v>1120353500</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1219" s="3">
         <v>52469010</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1220" s="3">
         <v>1122649705</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1221" s="3">
         <v>21181515</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1222" s="5">
         <v>1121148787</v>
       </c>
     </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1223" s="3">
         <v>1006700030</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1224" s="3">
         <v>1123530955</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1225" s="3">
         <v>60264481</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1226" s="3">
         <v>1073695360</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1227" s="3">
         <v>1006449658</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1228" s="3">
         <v>1016041709</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1229" s="3">
         <v>1122137332</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1230" s="3">
         <v>1122135332</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1231" s="5">
         <v>53154537</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1232" s="3">
         <v>1121146888</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1233" s="3">
         <v>40185360</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1234" s="3">
         <v>1121885145</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1235" s="3">
         <v>40306120</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1236" s="5">
         <v>40431599</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1237" s="5">
         <v>30002107</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1238" s="3">
         <v>1006689956</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1239" s="3">
         <v>21202600</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1240">
         <v>1121906197</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1241" s="3">
         <v>1120356582</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1242" s="3">
         <v>52881968</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1243" s="5">
         <v>1000807612</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1244" s="3">
         <v>39801680</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1245" s="3">
         <v>1122145025</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1246" s="3">
         <v>1121822628</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1247" s="3">
         <v>1124217818</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1248" s="3">
         <v>30981833</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1249" s="3">
         <v>1126905997</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1250" s="3">
         <v>40278351</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1251" s="5">
         <v>31006869</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1252" s="3">
         <v>21203424</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1253" s="3">
         <v>1122136923</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1254" s="3">
         <v>1124190794</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1255" s="3">
         <v>1124243490</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1256" s="3">
         <v>40400278</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1257" s="5">
         <v>1124190027</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1258" s="5">
         <v>40306131</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1259" s="3">
         <v>1124218504</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1260" s="3">
         <v>1124216166</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1261" s="5">
         <v>40422019</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1262" s="5">
         <v>1006697169</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1263" s="3">
         <v>1122140761</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1264" s="3">
         <v>1012425696</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1265" s="3">
         <v>21202920</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1266" s="3">
         <v>35255057</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1267" s="3">
         <v>1120504924</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1268" s="3">
         <v>1122140064</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1269" s="3">
         <v>1127385585</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1270" s="3">
         <v>1120384826</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1271" s="3">
         <v>1123058967</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1272" s="3">
         <v>40187549</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1273" s="3">
         <v>1123115654</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1274" s="3">
         <v>1120384377</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1275" s="3">
         <v>40362271</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1276" s="3">
         <v>26593620</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1277" s="5">
         <v>1124216732</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1278" s="3">
         <v>1120498573</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1279" s="3">
         <v>40316428</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1280" s="3">
         <v>1022938760</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1281" s="3">
         <v>1074131461</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1282" s="3">
         <v>1085343145</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1283" s="3">
         <v>1122124846</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1284" s="3">
         <v>1122124916</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1285" s="3">
         <v>1122144685</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1286" s="3">
         <v>21183385</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1287" s="3">
         <v>1121909358</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1288" s="3">
         <v>1122651037</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1289" s="3">
         <v>1006779225</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1290" s="3">
         <v>53016403</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1291" s="3">
         <v>1120376987</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1292" s="3">
         <v>1120387091</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1293" s="3">
         <v>40447469</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1294" s="5">
         <v>1120355361</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1295" s="3">
         <v>1121931227</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1296" s="5">
         <v>30081386</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1297" s="3">
         <v>1122127781</v>
       </c>
     </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1298" s="3">
         <v>40434094</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1299" s="3">
         <v>40775505</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1300" s="5">
         <v>1122138895</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1301" s="3">
         <v>51907408</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1302" s="3">
         <v>1123566252</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1303" s="3">
         <v>1123566613</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1304" s="5">
         <v>21940107</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1305" s="3">
         <v>30030986</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1306" s="3">
         <v>66865834</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1307" s="3">
         <v>40447278</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1308" s="3">
         <v>1070331092</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1309" s="3">
         <v>1121824758</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1310" s="3">
         <v>96195073</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1311" s="3">
         <v>1122646913</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1312" s="3">
         <v>1122144983</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1313" s="5">
         <v>40187078</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1314" s="3">
         <v>40447086</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1315" s="3">
         <v>1124828578</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1316" s="3">
         <v>40430721</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1317" s="3">
         <v>40434032</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1318" s="3">
         <v>1120506939</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1319" s="5">
         <v>40433512</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1320" s="5">
         <v>18598661</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1321" s="3">
         <v>30080869</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1322" s="3">
         <v>52116345</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1323" s="5">
         <v>86009284</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1324" s="3">
         <v>1119888577</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1325" s="3">
         <v>1006904343</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1326" s="3">
         <v>1120474468</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1327" s="3">
         <v>1006693742</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1328" s="3">
         <v>1120387777</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1329" s="3">
         <v>65795239</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1330" s="3">
         <v>1005293697</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1331" s="5">
         <v>31006780</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1332" s="3">
         <v>40415550</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1333" s="3">
         <v>1122119431</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1334" s="3">
         <v>40447519</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1335" s="5">
         <v>28845786</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1336" s="5">
         <v>1071304162</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1337" s="3">
         <v>1122652696</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1338" s="3">
         <v>1122126119</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1339" s="3">
         <v>1122627123</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1340" s="3">
         <v>1120373174</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1341" s="3">
         <v>36173037</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1342" s="3">
         <v>1023861468</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1343" s="3">
         <v>1118535887</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1344" s="3">
         <v>52552056</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1345" s="3">
         <v>1123862467</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1346" s="3">
         <v>1121903136</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1347" s="5">
         <v>1120373472</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1348" s="3">
         <v>1006737197</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1349" s="5">
         <v>14952515</v>
       </c>
     </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1350" s="3">
         <v>40442969</v>
       </c>
     </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1351" s="3">
         <v>28907825</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1352" s="5">
         <v>1104184087</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1353" s="5">
         <v>1098436557</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1354" s="3">
         <v>1120506274</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1355" s="3">
         <v>1006877419</v>
       </c>
     </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1356" s="3">
         <v>1006867028</v>
       </c>
     </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1357" s="5">
         <v>21182488</v>
       </c>
     </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1358" s="3">
         <v>1121923324</v>
       </c>
     </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1359" s="3">
         <v>1002681230</v>
       </c>
     </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1360" s="3">
         <v>1002733121</v>
       </c>
     </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1361" s="3">
         <v>1121846021</v>
       </c>
     </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1362" s="3">
         <v>1006903629</v>
       </c>
     </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1363" s="3">
         <v>1006691122</v>
       </c>
     </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1364" s="5">
         <v>1076200860</v>
       </c>
     </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1365" s="3">
         <v>40393137</v>
       </c>
     </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1366" s="3">
         <v>40421967</v>
       </c>
     </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1367" s="3">
         <v>1006774918</v>
       </c>
     </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1368" s="3">
         <v>1121823059</v>
       </c>
     </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1369" s="3">
         <v>1122118438</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1370" s="3">
         <v>1122506145</v>
       </c>
     </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1371" s="3">
         <v>1006690715</v>
       </c>
     </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1372" s="5">
         <v>1118562246</v>
       </c>
     </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1373" s="5">
         <v>1012413227</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1374" s="5">
         <v>1005181518</v>
       </c>
     </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1375" s="3">
         <v>1120387240</v>
       </c>
     </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1376" s="3">
         <v>1193581832</v>
       </c>
     </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1377" s="3">
         <v>1193128654</v>
       </c>
     </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1378" s="3">
         <v>31031916</v>
       </c>
     </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1379" s="3">
         <v>1024516175</v>
       </c>
     </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1380" s="3">
         <v>1006737670</v>
       </c>
     </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1381" s="3">
         <v>1006661215</v>
       </c>
     </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1382" s="3">
         <v>1122137585</v>
       </c>
     </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1383" s="3">
         <v>1120378198</v>
       </c>
     </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1384" s="5">
         <v>1119887995</v>
       </c>
     </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1385" s="5">
         <v>1120369362</v>
       </c>
     </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1386" s="3">
         <v>1006717092</v>
       </c>
     </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1387" s="3">
         <v>1006729382</v>
       </c>
     </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1388" s="5">
         <v>1006777681</v>
       </c>
     </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1389" s="3">
         <v>40316571</v>
       </c>
     </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1390" s="5">
         <v>80266280</v>
       </c>
     </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1391" s="3">
         <v>1101687452</v>
       </c>
     </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1392" s="3">
         <v>1006717478</v>
       </c>
     </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1393" s="5">
         <v>1120362791</v>
       </c>
     </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1394" s="3">
         <v>40434945</v>
       </c>
     </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1395" s="5">
         <v>1111197763</v>
       </c>
     </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1396" s="3">
         <v>1006688609</v>
       </c>
     </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1397" s="5">
         <v>1121875236</v>
       </c>
     </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1398" s="3">
         <v>1006778905</v>
       </c>
     </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1399" s="3">
         <v>1122117276</v>
       </c>
     </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1400" s="5">
         <v>1122138809</v>
       </c>
     </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1401" s="3">
         <v>1123058148</v>
       </c>
     </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1402" s="3">
         <v>1123565795</v>
       </c>
     </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1403" s="3">
         <v>40341027</v>
       </c>
     </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1404" s="3">
         <v>1120387069</v>
       </c>
     </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1405" s="3">
         <v>1123564388</v>
       </c>
     </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1406" s="5">
         <v>1123512956</v>
       </c>
     </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1407" s="5">
         <v>1121416747</v>
       </c>
     </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1408" s="3">
         <v>1020824438</v>
       </c>
     </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1409" s="3">
         <v>1000834345</v>
       </c>
     </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1410" s="3">
         <v>1193547301</v>
       </c>
     </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1411" s="3">
         <v>20699563</v>
       </c>
     </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1412" s="5">
         <v>1120498474</v>
       </c>
     </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1413" s="3">
         <v>1006779481</v>
       </c>
     </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1414" s="3">
         <v>41241858</v>
       </c>
     </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1415" s="5">
         <v>1123114456</v>
       </c>
     </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1416" s="5">
         <v>40405695</v>
       </c>
     </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1417" s="3">
         <v>52096535</v>
       </c>
     </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1418" s="3">
         <v>1120472391</v>
       </c>
     </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1419" s="5">
         <v>1120372119</v>
       </c>
     </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1420" s="5">
         <v>1123114061</v>
       </c>
     </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1421" s="5">
         <v>1121903090</v>
       </c>
     </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1422" s="3">
         <v>1123087731</v>
       </c>
     </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1423" s="3">
         <v>1122144884</v>
       </c>
     </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1424" s="3">
         <v>1015996912</v>
       </c>
     </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1425" s="3">
         <v>1121905136</v>
       </c>
     </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1426" s="3">
         <v>1120924575</v>
       </c>
     </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1427" s="3">
         <v>1122125305</v>
       </c>
     </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1428" s="3">
         <v>1006777428</v>
       </c>
     </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1429" s="3">
         <v>1118020889</v>
       </c>
     </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1430" s="3">
         <v>1122918095</v>
       </c>
     </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1431" s="3">
         <v>1120352059</v>
       </c>
     </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1432" s="5">
         <v>1116505062</v>
       </c>
     </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1433" s="3">
         <v>1003530338</v>
       </c>
     </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1434" s="3">
         <v>1121953048</v>
       </c>
     </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1435" s="3">
         <v>1005856097</v>
       </c>
     </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1436" s="3">
         <v>1123863140</v>
       </c>
     </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1437" s="5">
         <v>1006697920</v>
       </c>
     </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1438" s="5">
         <v>40265478</v>
       </c>
     </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1439" s="3">
         <v>1023367834</v>
       </c>
     </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1440" s="3">
         <v>1120844914</v>
       </c>
     </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1441" s="5">
         <v>1123085348</v>
       </c>
     </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1442" s="3">
         <v>1121872052</v>
       </c>
     </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1443" s="3">
         <v>1006876003</v>
       </c>
     </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1444" s="3">
         <v>1072593142</v>
       </c>
     </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1445" s="3">
         <v>1006794764</v>
       </c>
     </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1446" s="3">
         <v>1120924057</v>
       </c>
     </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1447" s="5">
         <v>1120006623</v>
       </c>
     </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1448" s="3">
         <v>1122626591</v>
       </c>
     </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1449" s="3">
         <v>30946278</v>
       </c>
     </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1450" s="5">
         <v>1122646404</v>
       </c>
     </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1451" s="3">
         <v>80904798</v>
       </c>
     </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1452" s="3">
         <v>1122132070</v>
       </c>
     </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1453" s="5">
         <v>1056771673</v>
       </c>
     </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1454" s="5">
         <v>21991161</v>
       </c>
     </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1455" s="5">
         <v>40445242</v>
       </c>
     </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1456" s="5">
         <v>1120381379</v>
       </c>
     </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1457" s="5">
         <v>1121921932</v>
       </c>
     </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1458" s="3">
         <v>1120818086</v>
       </c>
     </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1459" s="3">
         <v>1122123029</v>
       </c>
     </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1460" s="5">
         <v>1000693714</v>
       </c>
     </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1461" s="3">
         <v>1096037708</v>
       </c>
     </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1462" s="3">
         <v>1122143934</v>
       </c>
     </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1463" s="3">
         <v>1006692935</v>
       </c>
     </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1464" s="5">
         <v>1005319257</v>
       </c>
     </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1465" s="5">
         <v>1193112708</v>
       </c>
     </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1466" s="3">
         <v>1120560790</v>
       </c>
     </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1467" s="3">
         <v>1122139765</v>
       </c>
     </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1468" s="3">
         <v>1033740918</v>
       </c>
     </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1469" s="3">
         <v>1090438876</v>
       </c>
     </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1470" s="3">
         <v>1122119691</v>
       </c>
     </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1471" s="3">
         <v>1123864028</v>
       </c>
     </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1472" s="5">
         <v>1120355934</v>
       </c>
     </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1473" s="5">
         <v>1016945097</v>
       </c>
     </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1474" s="3">
         <v>1122653258</v>
       </c>
     </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1475" s="5">
         <v>1006777121</v>
       </c>
     </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1476" s="3">
         <v>65783261</v>
       </c>
     </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1477" s="5">
         <v>1121146244</v>
       </c>
     </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1478" s="5">
         <v>1123515171</v>
       </c>
     </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1479" s="3">
         <v>1006866651</v>
       </c>
     </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1480" s="3">
         <v>1001270374</v>
       </c>
     </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1481" s="3">
         <v>1120504886</v>
       </c>
     </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1482" s="3">
         <v>1234788097</v>
       </c>
     </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1483" s="5">
         <v>1006874253</v>
       </c>
     </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1484" s="5">
+        <v>1123567290</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="5">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1488" s="5">
+        <v>39727147</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="3">
+        <v>37671025</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1492">
+        <v>40334977</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="3">
+        <v>40413367</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="3">
+        <v>1121892958</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="3">
+        <v>21242719</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="5">
+        <v>1125552959</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="3">
+        <v>1056782595</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="5">
+        <v>1023035549</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="3">
+        <v>1007413869</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="3">
+        <v>1122138078</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="3">
+        <v>40401474</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="5">
+        <v>38290869</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="5">
+        <v>40386471</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="5">
+        <v>1121946821</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="5">
+        <v>1007816099</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="5">
+        <v>1006797846</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="5">
+        <v>1006774144</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="5">
+        <v>1121872788</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="5">
+        <v>24100971</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="5">
+        <v>1029981260</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="5">
+        <v>1121830619</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="3">
+        <v>1077976735</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="3">
+        <v>1005159244</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="5">
+        <v>1006794572</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="5">
+        <v>1006824446</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="3">
+        <v>1022999589</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="3">
+        <v>1006656639</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="5">
+        <v>1096196072</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="5">
+        <v>1034660761</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1520" s="5">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="5">
+        <v>17360686</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="5">
+        <v>51642333</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="5">
+        <v>3292415</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1524" s="5">
+        <v>11373533</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1525" s="5">
+        <v>30030456</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1526" s="5">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1527" s="5">
+        <v>3282146</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1528" s="5">
+        <v>3045925</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1529" s="5">
+        <v>21173140</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1530" s="5">
+        <v>21234532</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="5">
+        <v>6671921</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="5">
+        <v>4561950</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="3">
+        <v>40422362</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="3">
+        <v>40447756</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="5">
+        <v>19337954</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1536" s="3">
+        <v>30055021</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="3">
+        <v>40446257</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1538">
+        <v>40434896</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="5">
+        <v>1123860656</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1540" s="5">
+        <v>30055352</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1541" s="3">
+        <v>40362705</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1542" s="8">
+        <v>59671136</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1543" s="8">
+        <v>21177991</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="8">
+        <v>14993451</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1545" s="8">
+        <v>40361978</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="8">
+        <v>7818547</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1547" s="8">
+        <v>40412991</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="8">
+        <v>86040029</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="5">
+        <v>40265797</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="5">
+        <v>37559806</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="5">
+        <v>79849312</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="3">
+        <v>1033774813</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="5">
+        <v>1121148787</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="3">
+        <v>53154537</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1555" s="3">
+        <v>40431599</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="3">
+        <v>30002107</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="3">
+        <v>1121906197</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1558" s="5">
+        <v>1000807612</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="5">
+        <v>31006869</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1560">
+        <v>1124190027</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="3">
+        <v>40306131</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1562" s="5">
+        <v>40422019</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1563" s="5">
+        <v>1006697169</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1564" s="5">
+        <v>1124216732</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="3">
+        <v>1120355361</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="5">
+        <v>30081386</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="3">
+        <v>1122138895</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="5">
+        <v>21940107</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="3">
+        <v>40187078</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="5">
+        <v>40433512</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="5">
+        <v>18598661</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1572" s="5">
+        <v>86009284</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="5">
+        <v>31006780</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="5">
+        <v>28845786</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="3">
+        <v>1071304162</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="5">
+        <v>1120373472</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="5">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="3">
+        <v>1104184087</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="5">
+        <v>1098436557</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1580" s="3">
+        <v>21182488</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1581" s="3">
+        <v>1076200860</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1582" s="3">
+        <v>1118562246</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1583" s="3">
+        <v>1012413227</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1584" s="3">
+        <v>1005181518</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1585" s="3">
+        <v>1119887995</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1586" s="3">
+        <v>1120369362</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1587" s="3">
+        <v>1006777681</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1588" s="5">
+        <v>80266280</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1589" s="3">
+        <v>1120362791</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1590" s="3">
+        <v>1111197763</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1591" s="5">
+        <v>1121875236</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1592" s="3">
+        <v>1122138809</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1593" s="5">
+        <v>1123512956</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1594" s="3">
+        <v>1121416747</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1595" s="3">
+        <v>1120498474</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1596" s="3">
+        <v>1123114456</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1597" s="3">
+        <v>40405695</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1598" s="3">
+        <v>1120372119</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1599" s="5">
+        <v>1123114061</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1600" s="5">
+        <v>1121903090</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1601" s="3">
+        <v>1116505062</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1602" s="5">
+        <v>1006697920</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1603" s="3">
+        <v>40265478</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1604" s="5">
+        <v>1123085348</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1605" s="5">
+        <v>1120006623</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1606" s="5">
+        <v>1122646404</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1607" s="3">
+        <v>1056771673</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1608" s="5">
+        <v>21991161</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1609" s="3">
+        <v>40445242</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1610" s="5">
+        <v>1120381379</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1611" s="5">
+        <v>1121921932</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1612" s="3">
+        <v>1000693714</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1613" s="3">
+        <v>1005319257</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1614" s="3">
+        <v>1193112708</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1615" s="3">
+        <v>1120355934</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1616" s="3">
+        <v>1016945097</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1617" s="3">
+        <v>1006777121</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1618" s="3">
+        <v>1121146244</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1619" s="3">
+        <v>1123515171</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1620" s="5">
+        <v>1006874253</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1621" s="5">
         <v>1123567290</v>
       </c>
     </row>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559C06F-C09E-41D2-AEC6-9B1A48AE0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95059EA4-0D9A-4BD1-90B6-6DDB0398F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1762"/>
+  <dimension ref="A1:F1905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1671" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1688" sqref="B1688"/>
+    <sheetView tabSelected="1" topLeftCell="A1726" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1743" sqref="B1743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9265,6 +9265,716 @@
         <v>1123567290</v>
       </c>
     </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1764" s="1">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1765" s="5">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1766" s="3">
+        <v>31006459</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1767" s="5">
+        <v>11373533</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1768" s="5">
+        <v>30030456</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1769" s="5">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1770" s="3">
+        <v>40449322</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1771" s="3">
+        <v>40329872</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1772" s="3">
+        <v>40219846</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1773" s="3">
+        <v>1122338100</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1774" s="5">
+        <v>17303753</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1775" s="5">
+        <v>17345135</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1776" s="3">
+        <v>33875522</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1777" s="3">
+        <v>36293795</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1778" s="3">
+        <v>20871642</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1779" s="3">
+        <v>40186554</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1780" s="7">
+        <v>52287828</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1781" s="7">
+        <v>40333471</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1782" s="7">
+        <v>50976844</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1783" s="7">
+        <v>40329979</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1784" s="7">
+        <v>35263486</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1785" s="8">
+        <v>40415999</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1786" s="5">
+        <v>11405158</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1787" s="5">
+        <v>40384750</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1788" s="5">
+        <v>26508842</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1789" s="3">
+        <v>1121920935</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1790" s="3">
+        <v>30081591</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1791" s="3">
+        <v>40371629</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1792" s="3">
+        <v>1121840691</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1793" s="3">
+        <v>41213156</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1794" s="5">
+        <v>30080583</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1795" s="5">
+        <v>52812191</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1796" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1797" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1798" s="3">
+        <v>21011250</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1799" s="3">
+        <v>1120868086</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1800" s="3">
+        <v>21243208</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1801" s="3">
+        <v>1799801717</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1802" s="3">
+        <v>15960326</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1803" s="3">
+        <v>1120868173</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1804" s="3">
+        <v>900084777</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1805" s="3">
+        <v>1033690960</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1806" s="5">
+        <v>1075315269</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1807" s="3">
+        <v>33676007</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1808" s="3">
+        <v>1121818890</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1809" s="3">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1810" s="5">
+        <v>555555556</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1811" s="3">
+        <v>900737989</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1812" s="3">
+        <v>9007379890</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1813" s="3">
+        <v>1121913651</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1814" s="3">
+        <v>9000847773</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1815" s="3">
+        <v>9000847774</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1816" s="3">
+        <v>52861841</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1817" s="5">
+        <v>555555551</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1818" s="3">
+        <v>5849675</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1819" s="5">
+        <v>555555552</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1820" s="5">
+        <v>555555553</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1821" s="5">
+        <v>555555554</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1822" s="3">
+        <v>40417192</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1823" s="3">
+        <v>1122117543</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1824" s="3">
+        <v>1799831717</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1825" s="3">
+        <v>1799821717</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1826" s="3">
+        <v>1799841717</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1827" s="5">
+        <v>40416523</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1828" s="3">
+        <v>9000847771</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1829" s="3">
+        <v>9000847772</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1830" s="3">
+        <v>40188434</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1831" s="5">
+        <v>1121828917</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1832" s="3">
+        <v>1006771687</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1833" s="3">
+        <v>1118555784</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1834" s="3">
+        <v>79891869</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1835" s="3">
+        <v>40438899</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1836" s="3">
+        <v>555555557</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1837">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1838" s="5">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1839" s="3">
+        <v>1033723546</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1840" s="3">
+        <v>1120374995</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1841" s="3">
+        <v>86044711</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1842" s="3">
+        <v>40342629</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1843" s="3">
+        <v>1006720164</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1844" s="3">
+        <v>1121869388</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1845" s="5">
+        <v>890900608214</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1846" s="5">
+        <v>890900608211</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1847" s="3">
+        <v>555555558</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1848" s="5">
+        <v>89090060825</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1849" s="3">
+        <v>40356371</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1850" s="3">
+        <v>40218334</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1851" s="3">
+        <v>1108928812</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1852" s="3">
+        <v>9007505342</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1853" s="3">
+        <v>1003483201</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1854" s="3">
+        <v>1121911590</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1855" s="3">
+        <v>30080723</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1856" s="3">
+        <v>1006779023</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1857" s="5">
+        <v>8909006082</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1858" s="5">
+        <v>890900608213</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1859" s="5">
+        <v>89090060821</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1860" s="5">
+        <v>89090060829</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1861" s="5">
+        <v>890900608212</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1862" s="5">
+        <v>89090060824</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1863" s="5">
+        <v>89090060827</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1864" s="5">
+        <v>89090060828</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1865" s="5">
+        <v>890900608210</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1866" s="3">
+        <v>40305749</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1867" s="3">
+        <v>1006718970</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1868" s="3">
+        <v>1122919735</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1869" s="3">
+        <v>1006859801</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1870" s="3">
+        <v>1004634852</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1871" s="3">
+        <v>1116809197</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1872" s="3">
+        <v>444444444</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1873" s="3">
+        <v>40330136</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1874" s="3">
+        <v>1038100731</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1875" s="3">
+        <v>1116861125</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1876" s="3">
+        <v>1120866044</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1877" s="3">
+        <v>69022144</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1878" s="3">
+        <v>1121820427</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1879" s="3">
+        <v>1053764354</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1880" s="3">
+        <v>1011086251</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1881" s="3">
+        <v>1121849836</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1882" s="3">
+        <v>1120864873</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1883" s="3">
+        <v>1133839243</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1884" s="3">
+        <v>1121968001</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1885" s="3">
+        <v>77777778</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1886" s="3">
+        <v>77777779</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1887" s="3">
+        <v>1006719384</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1888" s="3">
+        <v>1006858033</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1889" s="5">
+        <v>1122922330</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1890" s="3">
+        <v>1082773285</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1891" s="3">
+        <v>55190862</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1892" s="3">
+        <v>1070325222</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1893" s="3">
+        <v>30520140</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1894" s="3">
+        <v>1124818008</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1895" s="3">
+        <v>444444441</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1896" s="3">
+        <v>444444442</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1897" s="3">
+        <v>444444443</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1898" s="3">
+        <v>1006719691</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1899" s="3">
+        <v>1121946622</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1900" s="3">
+        <v>1006720627</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1901" s="3">
+        <v>1123565052</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1902" s="3">
+        <v>40413517</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1903" s="3">
+        <v>63251940</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1904" s="3">
+        <v>1006009495</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1905" s="3">
+        <v>1002596538</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1090:B1128"/>

--- a/cedulas_Procesadas.xlsx
+++ b/cedulas_Procesadas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C541F-98D7-48B7-AC50-A93EAAB6472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F774BD-5A24-4F1C-82E4-9CC2214E7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$1944</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>VILLAVICENCIO 1</t>
   </si>
@@ -53,12 +56,27 @@
   <si>
     <t>4/10/2025 proceso en el horario habitual de la noche</t>
   </si>
+  <si>
+    <t>ejecutadas la noche del: 3/11/2025</t>
+  </si>
+  <si>
+    <t>procesadas la noche: 4/11/2025</t>
+  </si>
+  <si>
+    <t>procesadas la noche: 5/11/2025</t>
+  </si>
+  <si>
+    <t>proceso todo el dia 5/12/2025</t>
+  </si>
+  <si>
+    <t>durante el dia de 5/12/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +104,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +177,14 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,12 +192,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -148,16 +259,120 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{86E245E8-AEC9-4B24-A0E0-3D5E43DE4F27}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,15 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1944"/>
+  <dimension ref="A1:F2495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1897" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1908" sqref="A1908:A1944"/>
+    <sheetView tabSelected="1" topLeftCell="A2465" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2495" activeCellId="19" sqref="A2372:A2376 A2378:A2385 A2387:A2388 A2391:A2392 A2394:A2395 A2397 A2400:A2401 A2404:A2409 A2411:A2412 A2414 A2426 A2436 A2440:A2441 A2445 A2450 A2456 A2465 A2469:A2470 A2487 A2495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="47.90625" customWidth="1"/>
     <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.90625" customWidth="1"/>
@@ -5897,7 +6112,7 @@
       <c r="A1090" s="5">
         <v>21229026</v>
       </c>
-      <c r="B1090" s="9" t="s">
+      <c r="B1090" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5905,229 +6120,229 @@
       <c r="A1091" s="5">
         <v>39727147</v>
       </c>
-      <c r="B1091" s="9"/>
+      <c r="B1091" s="35"/>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1092" s="5">
         <v>17329021</v>
       </c>
-      <c r="B1092" s="9"/>
+      <c r="B1092" s="35"/>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1093" s="5">
         <v>39728361</v>
       </c>
-      <c r="B1093" s="9"/>
+      <c r="B1093" s="35"/>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1094" s="5">
         <v>37671025</v>
       </c>
-      <c r="B1094" s="9"/>
+      <c r="B1094" s="35"/>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1095" s="5">
         <v>40334977</v>
       </c>
-      <c r="B1095" s="9"/>
+      <c r="B1095" s="35"/>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1096" s="5">
         <v>40413367</v>
       </c>
-      <c r="B1096" s="9"/>
+      <c r="B1096" s="35"/>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1097" s="3">
         <v>40218053</v>
       </c>
-      <c r="B1097" s="9"/>
+      <c r="B1097" s="35"/>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1098" s="5">
         <v>1121892958</v>
       </c>
-      <c r="B1098" s="9"/>
+      <c r="B1098" s="35"/>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1099" s="5">
         <v>21242719</v>
       </c>
-      <c r="B1099" s="9"/>
+      <c r="B1099" s="35"/>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1100" s="3">
         <v>1121852594</v>
       </c>
-      <c r="B1100" s="9"/>
+      <c r="B1100" s="35"/>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1101" s="5">
         <v>1125552959</v>
       </c>
-      <c r="B1101" s="9"/>
+      <c r="B1101" s="35"/>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1102" s="5">
         <v>1056782595</v>
       </c>
-      <c r="B1102" s="9"/>
+      <c r="B1102" s="35"/>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1103" s="5">
         <v>1023035549</v>
       </c>
-      <c r="B1103" s="9"/>
+      <c r="B1103" s="35"/>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1104" s="5">
         <v>1007413869</v>
       </c>
-      <c r="B1104" s="9"/>
+      <c r="B1104" s="35"/>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1105" s="5">
         <v>1122138078</v>
       </c>
-      <c r="B1105" s="9"/>
+      <c r="B1105" s="35"/>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1106" s="5">
         <v>40401474</v>
       </c>
-      <c r="B1106" s="9"/>
+      <c r="B1106" s="35"/>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1107" s="5">
         <v>38290869</v>
       </c>
-      <c r="B1107" s="9"/>
+      <c r="B1107" s="35"/>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1108" s="5">
         <v>40386471</v>
       </c>
-      <c r="B1108" s="9"/>
+      <c r="B1108" s="35"/>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1109" s="3">
         <v>40388244</v>
       </c>
-      <c r="B1109" s="9"/>
+      <c r="B1109" s="35"/>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1110" s="5">
         <v>1121946821</v>
       </c>
-      <c r="B1110" s="9"/>
+      <c r="B1110" s="35"/>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1111" s="5">
         <v>1007816099</v>
       </c>
-      <c r="B1111" s="9"/>
+      <c r="B1111" s="35"/>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1112" s="5">
         <v>1006797846</v>
       </c>
-      <c r="B1112" s="9"/>
+      <c r="B1112" s="35"/>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1113" s="5">
         <v>1006774144</v>
       </c>
-      <c r="B1113" s="9"/>
+      <c r="B1113" s="35"/>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1114" s="5">
         <v>1121872788</v>
       </c>
-      <c r="B1114" s="9"/>
+      <c r="B1114" s="35"/>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1115" s="5">
         <v>24100971</v>
       </c>
-      <c r="B1115" s="9"/>
+      <c r="B1115" s="35"/>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1116" s="5">
         <v>1029981260</v>
       </c>
-      <c r="B1116" s="9"/>
+      <c r="B1116" s="35"/>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1117" s="3">
         <v>1097990010</v>
       </c>
-      <c r="B1117" s="9"/>
+      <c r="B1117" s="35"/>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1118" s="3">
         <v>52501176</v>
       </c>
-      <c r="B1118" s="9"/>
+      <c r="B1118" s="35"/>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1119" s="5">
         <v>1121830619</v>
       </c>
-      <c r="B1119" s="9"/>
+      <c r="B1119" s="35"/>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1120" s="5">
         <v>1077976735</v>
       </c>
-      <c r="B1120" s="9"/>
+      <c r="B1120" s="35"/>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1121" s="5">
         <v>1005159244</v>
       </c>
-      <c r="B1121" s="9"/>
+      <c r="B1121" s="35"/>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1122" s="5">
         <v>1006794572</v>
       </c>
-      <c r="B1122" s="9"/>
+      <c r="B1122" s="35"/>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1123" s="5">
         <v>1006824446</v>
       </c>
-      <c r="B1123" s="9"/>
+      <c r="B1123" s="35"/>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1124" s="3">
         <v>1121915979</v>
       </c>
-      <c r="B1124" s="9"/>
+      <c r="B1124" s="35"/>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1125" s="5">
         <v>1022999589</v>
       </c>
-      <c r="B1125" s="9"/>
+      <c r="B1125" s="35"/>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1126" s="5">
         <v>1006656639</v>
       </c>
-      <c r="B1126" s="9"/>
+      <c r="B1126" s="35"/>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1127" s="5">
         <v>1096196072</v>
       </c>
-      <c r="B1127" s="9"/>
+      <c r="B1127" s="35"/>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1128" s="5">
         <v>1034660761</v>
       </c>
-      <c r="B1128" s="9"/>
+      <c r="B1128" s="35"/>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1130" s="1">
@@ -9283,7 +9498,7 @@
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1766" s="3">
+      <c r="A1766" s="10">
         <v>31006459</v>
       </c>
     </row>
@@ -10003,7 +10218,7 @@
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1911" s="3">
+      <c r="A1911" s="10">
         <v>70052315</v>
       </c>
     </row>
@@ -10023,7 +10238,7 @@
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1915" s="10">
+      <c r="A1915" s="9">
         <v>11405158</v>
       </c>
     </row>
@@ -10053,7 +10268,7 @@
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1921" s="3">
+      <c r="A1921" s="10">
         <v>39728361</v>
       </c>
     </row>
@@ -10172,10 +10387,2787 @@
         <v>1122922330</v>
       </c>
     </row>
+    <row r="1945" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1945" s="3">
+        <v>1007202141</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1946" s="3">
+        <v>1122646250</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1947" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1948" s="11">
+        <v>1121839079</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1949" s="12">
+        <v>40381608</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1950" s="11">
+        <v>40334174</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1951" s="12">
+        <v>40217703</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1952" s="12">
+        <v>86060980</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1953" s="13">
+        <v>1120565574</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1954" s="14">
+        <v>40397588</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1955" s="14">
+        <v>17343285</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1956" s="13">
+        <v>86047103</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1957" s="14">
+        <v>1121835010</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1958" s="13">
+        <v>39650244</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1959" s="14">
+        <v>1032433355</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1960" s="14">
+        <v>40405672</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1961" s="13">
+        <v>1121958963</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1962" s="14">
+        <v>1121911956</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1963" s="13">
+        <v>1121924384</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1964" s="13">
+        <v>68292463</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1965" s="14">
+        <v>40333015</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1966" s="13">
+        <v>1122649071</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1967" s="13">
+        <v>1006877107</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1968" s="15">
+        <v>1121940895</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1969" s="16">
+        <v>17294200</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1970" s="17">
+        <v>1121916243</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1971" s="17">
+        <v>40437823</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1972" s="16">
+        <v>21236845</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1973" s="16">
+        <v>1121961333</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1974" s="17">
+        <v>1054708466</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1975" s="17">
+        <v>1007422578</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1976" s="15">
+        <v>40399829</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1977" s="17">
+        <v>1121967870</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1978" s="17">
+        <v>11303983</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1979" s="13">
+        <v>17313482</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1980" s="14">
+        <v>21225044</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1981" s="13">
+        <v>1120564344</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1982" s="14">
+        <v>1234788445</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1983" s="14">
+        <v>1121836601</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1984" s="18">
+        <v>37580868</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1985" s="19">
+        <v>1121859700</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1986" s="19">
+        <v>52934713</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1987" s="20">
+        <v>1121888890</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1988" s="19">
+        <v>40402837</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1989" s="15">
+        <v>19254340</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1990" s="17">
+        <v>52148836</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1991" s="19">
+        <v>1193110594</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1992" s="15">
+        <v>1006838316</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1993" s="16">
+        <v>1121826336</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1994" s="17">
+        <v>40366741</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1995" s="16">
+        <v>1073671204</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1996" s="21">
+        <v>1071941049</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1997" s="21">
+        <v>7181062</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1998" s="20">
+        <v>1116803478</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1999" s="17">
+        <v>40402098</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2000" s="17">
+        <v>33646192</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2001" s="17">
+        <v>1121923560</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2002" s="17">
+        <v>86083768</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2003" s="17">
+        <v>1121915860</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2004" s="22">
+        <v>1118533353</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2005" s="16">
+        <v>40444564</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2006" s="16">
+        <v>80191722</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2007" s="13">
+        <v>52996012</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2008" s="14">
+        <v>1121858655</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2009" s="16">
+        <v>79859252</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2010" s="16">
+        <v>40385144</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2011" s="23">
+        <v>1032407773</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2012" s="17">
+        <v>1122919306</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2013" s="17">
+        <v>1121206783</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2014" s="17">
+        <v>1121942416</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2015" s="16">
+        <v>1006534163</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2016" s="17">
+        <v>1001203921</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2017" s="16">
+        <v>16252087</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2018" s="17">
+        <v>5912489</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2019" s="24">
+        <v>1122653787</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2020" s="25">
+        <v>17328502</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2021" s="26">
+        <v>86050879</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2022" s="24">
+        <v>79997446</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2023" s="24">
+        <v>42685217</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2024" s="24">
+        <v>52271974</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2025" s="27">
+        <v>900750534</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2026" s="28">
+        <v>40383705</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2027" s="28">
+        <v>86073204</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2028" s="27">
+        <v>40216059</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2029" s="28">
+        <v>1121954556</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2030" s="28">
+        <v>1099202084</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2031" s="28">
+        <v>40378752</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2032" s="28">
+        <v>86083757</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2033" s="28">
+        <v>86064088</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2034" s="28">
+        <v>1121835917</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2035" s="28">
+        <v>1121918696</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2036" s="29">
+        <v>35264257</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2037" s="29">
+        <v>86073982</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2038" s="28">
+        <v>17418369</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2039" s="27">
+        <v>52917500</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2040" s="30">
+        <v>40210146</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2041" s="28">
+        <v>1121877506</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2042" s="28">
+        <v>1111203256</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2043" s="27">
+        <v>1117490568</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2044" s="29">
+        <v>17326693</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2045" s="24">
+        <v>40379019</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2046" s="28">
+        <v>40447715</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2047" s="28">
+        <v>1121828213</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2048" s="28">
+        <v>40378674</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2049" s="29">
+        <v>1121845746</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2050" s="24">
+        <v>1121904821</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2051" s="28">
+        <v>40399637</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2052" s="27">
+        <v>17287258</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2053" s="31">
+        <v>28916571</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2054" s="32">
+        <v>1020814606</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2055" s="24">
+        <v>40380842</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2056" s="28">
+        <v>86068128</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2057" s="28">
+        <v>1121917278</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2058" s="29">
+        <v>52231177</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2059" s="5">
+        <v>11405158</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2060" s="5">
+        <v>17303753</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2061" s="3">
+        <v>30080583</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2062" s="5">
+        <v>26508842</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2063" s="5">
+        <v>40384750</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2064" s="5">
+        <v>52812191</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2065" s="5">
+        <v>17345135</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2066" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2067" s="11">
+        <v>40381608</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2068" s="11">
+        <v>40217703</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2069" s="11">
+        <v>86060980</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2070" s="14">
+        <v>1120565574</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2071" s="14">
+        <v>86047103</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2072" s="14">
+        <v>39650244</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2073" s="14">
+        <v>1121958963</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2074" s="14">
+        <v>1121924384</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2075" s="14">
+        <v>68292463</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2076" s="14">
+        <v>1122649071</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2077" s="13">
+        <v>1006877107</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2078" s="19">
+        <v>1121940895</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2079" s="16">
+        <v>1121916243</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2080" s="17">
+        <v>40437823</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2081" s="16">
+        <v>1054708466</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2082" s="16">
+        <v>1007422578</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2083" s="19">
+        <v>40399829</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2084" s="16">
+        <v>1121967870</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2085" s="16">
+        <v>11303983</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2086" s="14">
+        <v>17313482</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2087" s="13">
+        <v>1120564344</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2088" s="19">
+        <v>19254340</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2089" s="16">
+        <v>52148836</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2090" s="19">
+        <v>1006838316</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2091" s="16">
+        <v>40366741</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2092" s="20">
+        <v>1071941049</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2093" s="20">
+        <v>7181062</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2094" s="16">
+        <v>40402098</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2095" s="17">
+        <v>33646192</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2096" s="16">
+        <v>1121923560</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2097" s="16">
+        <v>86083768</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2098" s="16">
+        <v>1121915860</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2099" s="13">
+        <v>52996012</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2100" s="16">
+        <v>1032407773</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2101" s="16">
+        <v>1122919306</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2102" s="16">
+        <v>1121206783</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2103" s="16">
+        <v>1121942416</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2104" s="16">
+        <v>1001203921</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2105" s="16">
+        <v>5912489</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2106" s="25">
+        <v>1122653787</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2107" s="33">
+        <v>86050879</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2108" s="25">
+        <v>79997446</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2109" s="25">
+        <v>42685217</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2110" s="25">
+        <v>52271974</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2111" s="27">
+        <v>40383705</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2112" s="27">
+        <v>86073204</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2113" s="27">
+        <v>1121954556</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2114" s="27">
+        <v>1099202084</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2115" s="27">
+        <v>40378752</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2116" s="27">
+        <v>86083757</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2117" s="27">
+        <v>86064088</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2118" s="27">
+        <v>1121835917</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2119" s="27">
+        <v>1121918696</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2120" s="34">
+        <v>35264257</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2121" s="34">
+        <v>86073982</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2122" s="27">
+        <v>17418369</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2123" s="27">
+        <v>1121877506</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2124" s="27">
+        <v>1111203256</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2125" s="34">
+        <v>17326693</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2126" s="25">
+        <v>40379019</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2127" s="27">
+        <v>40447715</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2128" s="27">
+        <v>1121828213</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2129" s="27">
+        <v>40378674</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2130" s="34">
+        <v>1121845746</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2131" s="25">
+        <v>1121904821</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2132" s="27">
+        <v>40399637</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2133" s="31">
+        <v>1020814606</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2134" s="25">
+        <v>40380842</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2135" s="27">
+        <v>86068128</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2136" s="27">
+        <v>1121917278</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2137" s="34">
+        <v>52231177</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2138" s="3">
+        <v>11405158</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2139" s="3">
+        <v>17303753</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2140" s="3">
+        <v>26508842</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2141" s="3">
+        <v>40384750</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2142" s="3">
+        <v>52812191</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2143" s="3">
+        <v>17345135</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2145" s="3">
+        <v>1006877107</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2146" s="3">
+        <v>40437823</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2147" s="3">
+        <v>1120564344</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2148" s="3">
+        <v>33646192</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2149" s="3">
+        <v>52996012</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2151" s="5">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2152" s="5">
+        <v>40446511</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2153" s="5">
+        <v>7843448</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2154" s="5">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2155" s="3">
+        <v>17126031</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2156" s="5">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2157" s="5">
+        <v>39727147</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2158" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2159" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2160" s="5">
+        <v>41767235</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2161" s="5">
+        <v>40367654</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2162" s="5">
+        <v>40316677</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2163" s="3">
+        <v>31021535</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2164" s="5">
+        <v>1123087331</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2165">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2166" s="5">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2167" s="3">
+        <v>1075225206</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2168" s="3">
+        <v>40390495</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2169" s="5">
+        <v>901383016</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2170" s="3">
+        <v>900236956</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2171" s="3">
+        <v>39455010</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2172" s="3">
+        <v>86062141</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2173" s="3">
+        <v>40332221</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2174" s="3">
+        <v>53048508</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2175" s="3">
+        <v>1121826230</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2176" s="3">
+        <v>1121835607</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2177" s="3">
+        <v>60253721</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2178" s="5">
+        <v>1121820414</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2179" s="5">
+        <v>1122126489</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2180" s="3">
+        <v>24714565</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2181" s="3">
+        <v>1121894584</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2182" s="3">
+        <v>1120368838</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2183" s="3">
+        <v>18224596</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2184" s="3">
+        <v>79611020</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2185" s="3">
+        <v>79468949</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2186" s="3">
+        <v>1124243073</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2187" s="3">
+        <v>74751826</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2188" s="3">
+        <v>30081309</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2189" s="3">
+        <v>1121927854</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2190" s="3">
+        <v>86069159</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2191" s="3">
+        <v>1121868774</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2192" s="3">
+        <v>1020725666</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2193" s="3">
+        <v>1121889770</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2194" s="3">
+        <v>1121855059</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2195" s="3">
+        <v>1122123218</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2196" s="3">
+        <v>6160332</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2197" s="5">
+        <v>1121894698</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2198" s="3">
+        <v>17220865</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2199" s="3">
+        <v>1121844319</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2200" s="3">
+        <v>37821052</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2201" s="3">
+        <v>1121967882</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2202" s="3">
+        <v>52185045</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2203" s="3">
+        <v>86065219</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2204" s="3">
+        <v>3221112</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2205" s="3">
+        <v>1121825293</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2206" s="3">
+        <v>1073152442</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2207" s="3">
+        <v>38284164</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2208" s="3">
+        <v>52768588</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2209" s="3">
+        <v>901144733</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2210" s="3">
+        <v>41212375</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2211" s="5">
+        <v>40218455</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2212" s="3">
+        <v>1121883032</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2213" s="3">
+        <v>1121941908</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2214" s="3">
+        <v>1121836191</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2215" s="3">
+        <v>40216392</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2216" s="5">
+        <v>1121924397</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2217" s="5">
+        <v>19404656</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2218" s="3">
+        <v>40330360</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2219" s="3">
+        <v>30054290</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2220" s="5">
+        <v>40450506</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2221" s="3">
+        <v>40446119</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2222" s="3">
+        <v>1007646854</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2223" s="5">
+        <v>80155489</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2224" s="3">
+        <v>21182937</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2225" s="3">
+        <v>40429639</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2226" s="5">
+        <v>52293809</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2227" s="3">
+        <v>1029984261</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2228" s="3">
+        <v>1030536363</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2229" s="5">
+        <v>20716629</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2230" s="3">
+        <v>1121886266</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2231" s="5">
+        <v>21185176</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2232" s="3">
+        <v>40186825</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2233" s="3">
+        <v>1120560790</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2234" s="3">
+        <v>1006874728</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2235" s="3">
+        <v>24231064</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2236" s="5">
+        <v>1003249363</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2237" s="5">
+        <v>1121822980</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2238" s="3">
+        <v>1080184705</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2239" s="5">
+        <v>1121969796</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2240" s="3">
+        <v>1121888829</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2241" s="3">
+        <v>40430886</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2242" s="3">
+        <v>40205935</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2243" s="5">
+        <v>1122648762</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2244" s="3">
+        <v>1120371131</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2245" s="3">
+        <v>51576951</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2246" s="5">
+        <v>1123802016</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2247" s="3">
+        <v>40186980</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2248" s="5">
+        <v>1123532019</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2249" s="3">
+        <v>30946278</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2250" s="3">
+        <v>1121848505</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2251" s="3">
+        <v>1120559013</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2252" s="3">
+        <v>1016945097</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2253" s="5">
+        <v>1030555237</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2254" s="5">
+        <v>1119893263</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2255" s="5">
+        <v>1123114667</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2256" s="3">
+        <v>1147687236</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2257" s="5">
+        <v>1000285266</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2258" s="3">
+        <v>40442180</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2259" s="5">
+        <v>1074929081</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2260" s="3">
+        <v>41214144</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2261" s="3">
+        <v>1014237571</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2262" s="3">
+        <v>1023037188</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2263" s="3">
+        <v>1123084803</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2264" s="3">
+        <v>40216167</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2265" s="3">
+        <v>1122627366</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2266" s="3">
+        <v>1121872788</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2267" s="3">
+        <v>86052965</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2268" s="3">
+        <v>86069036</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2269" s="3">
+        <v>1120560891</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2270" s="3">
+        <v>40334842</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2271" s="3">
+        <v>42119255</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2272" s="5">
+        <v>1035390002</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2273" s="3">
+        <v>1096196072</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2274" s="3">
+        <v>1026553027</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2275" s="3">
+        <v>1121833492</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2276" s="3">
+        <v>1049655513</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2277" s="3">
+        <v>1120872602</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2278" s="3">
+        <v>20632783</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2279" s="3">
+        <v>1024574942</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2280" s="3">
+        <v>80232510</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2281" s="3">
+        <v>1120925409</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2282" s="3">
+        <v>86007366</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2283" s="3">
+        <v>1122647844</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2284" s="5">
+        <v>1119887881</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2285" s="3">
+        <v>9018114359</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2286" s="5">
+        <v>1084728774</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2287" s="5">
+        <v>80816943</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2288" s="5">
+        <v>39776965</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2289" s="5">
+        <v>1123562601</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2290" s="5">
+        <v>1122509028</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2291" s="5">
+        <v>1124219292</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2292" s="5">
+        <v>1234790927</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2293" s="5">
+        <v>86043139</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2294" s="5">
+        <v>1122118359</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2295" s="5">
+        <v>52465706</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2296" s="5">
+        <v>1021662935</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2297" s="5">
+        <v>1122653081</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2298" s="5">
+        <v>1121937093</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2299" s="5">
+        <v>52128229</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2300" s="5">
+        <v>1126704217</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2301" s="5">
+        <v>1089000665</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2302" s="5">
+        <v>40444048</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2303" s="5">
+        <v>1122132291</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2304" s="5">
+        <v>1123860651</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2305" s="5">
+        <v>1111819122</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2306" s="5">
+        <v>1193460374</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2307" s="5">
+        <v>1006775405</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2308" s="5">
+        <v>40368191</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2309" s="5">
+        <v>1120864014</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2310" s="5">
+        <v>1121895853</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2311" s="5">
+        <v>1122652449</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2312" s="5">
+        <v>1125548639</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2313" s="5">
+        <v>1122652074</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2314" s="5">
+        <v>11805422</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2315" s="5">
+        <v>38794838</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2316" s="5">
+        <v>41059265</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2317" s="5">
+        <v>52729181</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2318" s="5">
+        <v>1022383499</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2319" s="5">
+        <v>1122506705</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2320" s="5">
+        <v>1123141031</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2321" s="5">
+        <v>41104365</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2322" s="5">
+        <v>1122118523</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2323" s="5">
+        <v>21013647</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2324" s="5">
+        <v>1007318395</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2325" s="5">
+        <v>30081607</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2326" s="5">
+        <v>1022324666</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2327" s="5">
+        <v>1002364011</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2328" s="5">
+        <v>40366475</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2329" s="5">
+        <v>39731523</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2330" s="5">
+        <v>1121872052</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2331" s="5">
+        <v>28119937</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2332" s="5">
+        <v>1120372879</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2333" s="5">
+        <v>55196116</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2334" s="5">
+        <v>1121837895</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2335" s="5">
+        <v>1123513703</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2336" s="5">
+        <v>1007363955</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2337" s="5">
+        <v>403999829</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2338" s="5">
+        <v>1122512944</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2339" s="5">
+        <v>1120926875</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2340" s="5">
+        <v>40333161</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2341" s="5">
+        <v>1000694025</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2342" s="5">
+        <v>21177780</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2343" s="5">
+        <v>86060086</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2344" s="5">
+        <v>53090088</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2345" s="5">
+        <v>1112771422</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2346" s="5">
+        <v>17416510</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2347" s="5">
+        <v>1151956888</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2348" s="5">
+        <v>40381104</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2349" s="5">
+        <v>1006697742</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2350" s="5">
+        <v>1121936727</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2351" s="5">
+        <v>1123800843</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2352" s="5">
+        <v>1121843999</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2353" s="5">
+        <v>1108932402</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2354" s="5">
+        <v>86009356</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2355" s="5">
+        <v>20781621</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2356" s="5">
+        <v>40436490</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2357" s="5">
+        <v>55111676</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2358" s="5">
+        <v>40328653</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2359" s="5">
+        <v>1120368724</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2360" s="5">
+        <v>1006879465</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2361" s="5">
+        <v>1030526944</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2362" s="5">
+        <v>800159687</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2363" s="5">
+        <v>1121906084</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2364" s="5">
+        <v>1121842007</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2365" s="5">
+        <v>1121903138</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2366" s="5">
+        <v>1007258791</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2367" s="5">
+        <v>1123862542</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2368" s="5">
+        <v>1122139765</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2369" s="5">
+        <v>1007421218</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2370" s="5">
+        <v>1122507035</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2372" s="5">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2373" s="5">
+        <v>40446511</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2374" s="5">
+        <v>7843448</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2375" s="5">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2376" s="5">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2377" s="3">
+        <v>39727147</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2378" s="5">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2379" s="5">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2380" s="5">
+        <v>41767235</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2381" s="5">
+        <v>40367654</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2382" s="5">
+        <v>40316677</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2383" s="5">
+        <v>1123087331</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2384">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2385" s="5">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2386" s="3">
+        <v>901383016</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2387" s="5">
+        <v>1121820414</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2388" s="5">
+        <v>1122126489</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2389" s="3">
+        <v>1121894698</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2390" s="3">
+        <v>40218455</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2391" s="5">
+        <v>1121924397</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2392" s="5">
+        <v>19404656</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2393" s="3">
+        <v>40450506</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2394" s="5">
+        <v>80155489</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2395" s="5">
+        <v>52293809</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2396" s="3">
+        <v>20716629</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2397" s="5">
+        <v>21185176</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2398" s="3">
+        <v>1003249363</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2399" s="3">
+        <v>1121822980</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2400" s="5">
+        <v>1121969796</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2401" s="5">
+        <v>1122648762</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2402" s="3">
+        <v>1123802016</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2403" s="3">
+        <v>1123532019</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2404" s="5">
+        <v>1030555237</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2405" s="5">
+        <v>1119893263</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2406" s="5">
+        <v>1123114667</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2407" s="5">
+        <v>1000285266</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2408" s="5">
+        <v>1074929081</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2409" s="3">
+        <v>1035390002</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2410" s="3">
+        <v>1119887881</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2411" s="5">
+        <v>1084728774</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2412" s="5">
+        <v>80816943</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2413" s="3">
+        <v>39776965</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2414" s="5">
+        <v>1123562601</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2415" s="3">
+        <v>1122509028</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2416" s="3">
+        <v>1124219292</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2417" s="3">
+        <v>1234790927</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2418" s="3">
+        <v>86043139</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2419" s="3">
+        <v>1122118359</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2420" s="3">
+        <v>52465706</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2421" s="3">
+        <v>1021662935</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2422" s="3">
+        <v>1122653081</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2423" s="3">
+        <v>1121937093</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2424" s="3">
+        <v>52128229</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2425" s="3">
+        <v>1126704217</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2426" s="5">
+        <v>1089000665</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2427" s="3">
+        <v>40444048</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2428" s="3">
+        <v>1122132291</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2429" s="3">
+        <v>1123860651</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2430" s="3">
+        <v>1111819122</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2431" s="3">
+        <v>1193460374</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2432" s="3">
+        <v>1006775405</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2433" s="3">
+        <v>40368191</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2434" s="3">
+        <v>1120864014</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2435" s="3">
+        <v>1121895853</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2436" s="5">
+        <v>1122652449</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2437" s="3">
+        <v>1125548639</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2438" s="3">
+        <v>1122652074</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2439" s="3">
+        <v>11805422</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2440" s="5">
+        <v>38794838</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2441" s="5">
+        <v>41059265</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2442" s="3">
+        <v>52729181</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2443" s="3">
+        <v>1022383499</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2444" s="3">
+        <v>1122506705</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2445" s="5">
+        <v>1123141031</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2446" s="3">
+        <v>41104365</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2447" s="3">
+        <v>1122118523</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2448" s="3">
+        <v>21013647</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2449" s="3">
+        <v>1007318395</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2450">
+        <v>30081607</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2451" s="3">
+        <v>1022324666</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2452" s="3">
+        <v>1002364011</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2453" s="3">
+        <v>40366475</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2454" s="3">
+        <v>39731523</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2455" s="3">
+        <v>1121872052</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2456">
+        <v>28119937</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2457" s="3">
+        <v>1120372879</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2458" s="3">
+        <v>55196116</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2459" s="3">
+        <v>1121837895</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2460" s="3">
+        <v>1123513703</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2461" s="3">
+        <v>1007363955</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2462" s="3">
+        <v>403999829</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2463" s="3">
+        <v>1122512944</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2464" s="3">
+        <v>1120926875</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2465" s="5">
+        <v>40333161</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2466" s="3">
+        <v>1000694025</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2467" s="3">
+        <v>21177780</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2468" s="3">
+        <v>86060086</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2469" s="5">
+        <v>53090088</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2470" s="5">
+        <v>1112771422</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2471" s="3">
+        <v>17416510</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2472" s="3">
+        <v>1151956888</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2473" s="3">
+        <v>40381104</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2474" s="3">
+        <v>1006697742</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2475" s="3">
+        <v>1121936727</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2476" s="3">
+        <v>1123800843</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2477" s="3">
+        <v>1121843999</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2478" s="3">
+        <v>1108932402</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2479" s="3">
+        <v>86009356</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2480" s="3">
+        <v>20781621</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2481" s="3">
+        <v>40436490</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2482" s="3">
+        <v>55111676</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2483" s="3">
+        <v>40328653</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2484" s="3">
+        <v>1120368724</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2485" s="3">
+        <v>1006879465</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2486" s="3">
+        <v>1030526944</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2487" s="5">
+        <v>800159687</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2488" s="3">
+        <v>1121906084</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2489" s="3">
+        <v>1121842007</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2490" s="3">
+        <v>1121903138</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2491" s="3">
+        <v>1007258791</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2492" s="3">
+        <v>1123862542</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2493" s="3">
+        <v>1122139765</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2494" s="3">
+        <v>1007421218</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2495" s="5">
+        <v>1122507035</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A1944" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1090:B1128"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1900">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>39728361</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2371 A2496:A1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2372:A2495">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
